--- a/pract1/scraped/CorriereDellaSera.xlsx
+++ b/pract1/scraped/CorriereDellaSera.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B237"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,1898 +409,1663 @@
       <c r="B1" t="str">
         <v>Link</v>
       </c>
+      <c r="C1" t="str">
+        <v>Author</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Il crollo di un cavalcavia sulla diramazione Roma sud: la diretta video</v>
+        <v>: dalla celiachia alla procreazione assistita, ecco quali sono</v>
       </c>
       <c r="B2" t="str">
-        <v>https://video.corriere.it/il-crollo-di-un-cavalcavia-sulla-diramazione-roma-sud-la-diretta-video/252111de-4e6a-4915-bd69-52ea98467xlk</v>
+        <v>https://www.corriere.it/economia/consumi/cards/sanita-le-nuove-cure-gratuite-dalla-celiachia-alla-procreazione-assistita-cosa-c-e-nella-lista/le-nuove-tariffe-delle-cure-dopo-28-anni_principale.shtml</v>
+      </c>
+      <c r="C2" t="str">
+        <v>di Redazione Economia</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Libano, le immagini delle esplosioni nella notte</v>
+        <v>Proroga per i mutui prima casa agli under 30, ma solo a chi progetta il matrimonio</v>
       </c>
       <c r="B3" t="str">
-        <v>https://video.corriere.it/esteri/libano-le-immagini-delle-esplosioni-nella-notte/7cf70cd9-c155-4d77-b3c7-c9cfa0b87xlk</v>
+        <v>https://www.corriere.it/economia/mutui/24_novembre_15/mutui-prima-casa-under-30-solo-a-chi-progetta-il-matrimonio-forza-italia-vuole-riservarli-a-chi-si-sposa-cc105ba2-a9b4-4daa-8715-9f098a388xlk.shtml</v>
+      </c>
+      <c r="C3" t="str">
+        <v>di Massimiliano Jattoni Dall’Asén</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Dentro l’unità medica dove vengono curati i soldati feriti in prima linea</v>
+        <v>Il panino e la bibita prima dell'intervento e il giallo della cartella clinica: oggi l'autopsia su Margaret, morta a 22 anni per la rinoplastica</v>
       </c>
       <c r="B4" t="str">
-        <v>https://video.corriere.it/esteri/il-reportage-dall-unita-medica-di-chasiv-yar-dove-vengono-curati-i-soldati-feriti-sulle-prime-linee-di-combattimento/7b7a43d5-a3f9-4d50-83cf-6a9943d6bxlk</v>
+        <v>https://roma.corriere.it/notizie/cronaca/24_novembre_15/margaret-spada-morta-studio-procopio-autopsia-cd8f1e78-b0fa-48be-b436-5c9a96b64xlk.shtml</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Le immagini delle alluvioni in Giappone, vittime e dispersi</v>
+        <v>Il fidanzato di Margaret Spada: «Lei stava morendo e quei due medici mi hanno cacciato. Ho ripreso tutto»</v>
       </c>
       <c r="B5" t="str">
-        <v>https://video.corriere.it/esteri/le-immagini-delle-alluvioni-in-giappone-vittime-e-dispersi/a92b4ea4-eb39-40c3-9189-7a89f0ab7xlk</v>
+        <v>https://roma.corriere.it/notizie/cronaca/24_novembre_15/margaret-spada-fidanzato-salvatore-sferrazzo-d27e0083-9c7a-4ed0-ab6c-9c25c0a12xlk.shtml</v>
+      </c>
+      <c r="C5" t="str">
+        <v>di Valeria Costantini e Rinaldo Frignani</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Scoppia bombola del gas, crolla palazzina a Saviano: morti due fratelli di 4 e 6 anni, salvo il papà e un terzo bimbo. Si cerca la madre</v>
+        <v/>
       </c>
       <c r="B6" t="str">
-        <v>https://napoli.corriere.it/notizie/cronaca/24_settembre_22/fuga-di-gas-a-saviano-crolla-una-palazzina-sotto-le-macerie-una-famiglia-di-cinque-persone-fa956618-f042-4922-bebc-6d72994e6xlk.shtml</v>
+        <v>https://www.corriere.it/caffe-gramellini/24_novembre_15/che-brutta-aria-163d88de-259f-4a46-9b14-9f3e56bf5xlk.shtml</v>
+      </c>
+      <c r="C6" t="str">
+        <v>di Massimo Gramellini</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Molfetta, rissa e spari tra ragazzi fuori da</v>
+        <v>Colpo alla legge sull'autonomia regionale: che succede ora? Ci sarà un referendum?</v>
       </c>
       <c r="B7" t="str">
-        <v>https://bari.corriere.it/notizie/cronaca/24_settembre_22/molfetta-rissa-tra-giovani-durante-la-notte-partono-alcuni-colpi-di-pistola-muore-ragazza-di-19-anni-tre-feriti-804349ff-23af-4b13-8531-4d5226198xlk.shtml</v>
+        <v>https://roma.corriere.it/notizie/politica/24_novembre_15/autonomia-differenziata-incostituzionale-cosa-succede-1d854338-bc5f-4c02-a17d-8261e7189xlk.shtml</v>
+      </c>
+      <c r="C7" t="str">
+        <v>di Adriana Logroscino e Cesare Zapperi</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>un locale: muore una 19enne. Tre feriti</v>
+        <v>Chiude il Fondaco dei Tedeschi: perdite per 100 milioni, verso il licenziamento i 226 dipendenti</v>
       </c>
       <c r="B8" t="str">
-        <v>https://bari.corriere.it/notizie/cronaca/24_settembre_22/molfetta-rissa-tra-giovani-durante-la-notte-partono-alcuni-colpi-di-pistola-muore-ragazza-di-19-anni-tre-feriti-804349ff-23af-4b13-8531-4d5226198xlk.shtml</v>
+        <v>https://corrieredelveneto.corriere.it/notizie/venezia-mestre/economia/24_novembre_14/venezia-chiude-il-fondaco-dei-tedeschi-rosso-da-100-milioni-per-l-hub-del-lusso-lettere-di-licenziamento-per-i-226-dipendenti-f16abf28-0066-4247-ad50-d02c806c7xlk.shtml</v>
+      </c>
+      <c r="C8" t="str">
+        <v>di Monica Zicchiero</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Torrenova, crolla ponte sulla diramazione Roma sud durante la demolizione: interrotta la A1 |</v>
+        <v>Maria De Filippi: «Io vittima di fake news: ho rinunciato all'eredità di Maurizio Costanzo per i figli»</v>
       </c>
       <c r="B9" t="str">
-        <v>https://roma.corriere.it/notizie/cronaca/24_settembre_22/cantiere-sull-a1-a-torrenova-nella-notte-crolla-un-cavalcavia-sotto-il-peso-di-due-mezzi-al-lavoro-e2f8b68f-31ae-42bf-9ca4-3ad75d0c5xlk.shtml</v>
+        <v>https://www.corriere.it/spettacoli/24_novembre_15/maria-de-filippi-ho-rinunciato-all-eredita-di-maurizio-costanzo-per-i-suoi-figli-e-mio-figlio-f3485983-b691-46ec-b564-e0fd24246xlk.shtml</v>
+      </c>
+      <c r="C9" t="str">
+        <v>di Maria Volpe</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Hezbollah, l'attacco più profondo: «Colpiti siti industriali militari in Israele».</v>
+        <v>Il giallo della scomparsa della milionaria Henao.  «L'ha uccisa l'ex marito, in ballo milioni di dollari»</v>
       </c>
       <c r="B10" t="str">
-        <v>https://www.corriere.it/esteri/diretta-live/24_settembre_22/israele-hamas-le-notizie-di-oggi-in-diretta-libano-nuovi-raid-di-israele-contro-hezbollah-khamenei-l-unita-tra-stati-islamici-eliminera-il-regime-sionista.shtml</v>
+        <v>https://corrieredelveneto.corriere.it/notizie/vicenza/cronaca/24_novembre_15/ana-maria-henao-la-milionaria-scomparsa-l-ex-marito-l-ha-uccisa-95eccd00-2e08-4d57-b53a-aa94b61e9xlk.shtml</v>
+      </c>
+      <c r="C10" t="str">
+        <v>di Rebecca Luisetto</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Idf entra nella sede di al Jazeera a Ramallah</v>
+        <v>L'ex produttore: «P Diddy e i suoi amici hanno abusato sessualmente di Justin Bieber»</v>
       </c>
       <c r="B11" t="str">
-        <v>https://www.corriere.it/esteri/diretta-live/24_settembre_22/israele-hamas-le-notizie-di-oggi-in-diretta-libano-nuovi-raid-di-israele-contro-hezbollah-khamenei-l-unita-tra-stati-islamici-eliminera-il-regime-sionista.shtml</v>
+        <v>https://www.corriere.it/spettacoli/24_novembre_14/p-diddy-e-i-suoi-amici-hanno-abusato-sessualmente-di-justin-bieber-e5e09544-dd08-44ce-a982-29b5630c2xlk.shtml</v>
+      </c>
+      <c r="C11" t="str">
+        <v>di Giulia Taviani</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Cisgiordania, il caso dei corpi gettati dai tetti: bufera sui soldati israeliani</v>
+        <v>L'appello di Benedetta, 18 anni: «Cerco mia madre naturale. Mi serve un abbraccio»</v>
       </c>
       <c r="B12" t="str">
-        <v>https://www.corriere.it/esteri/24_settembre_21/cisgiordania-il-caso-dei-corpi-gettati-dai-tetti-bufera-sui-soldati-israeliani-per-un-video-cabb61ca-ac2b-4c21-a3ee-c8d64bb04xlk.shtml</v>
+        <v>https://milano.corriere.it/notizie/lombardia/24_novembre_15/sondrio-l-appello-social-di-benedetta-18-anni-adottata-cerco-la-mia-mamma-naturale-mi-serve-un-abbraccio-6e3ec7cb-6f7e-4a0d-8b40-d5dec3033xlk.shtml</v>
+      </c>
+      <c r="C12" t="str">
+        <v>di Barbara Gerosa</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Rabbia, lacrime e paura tra i palazzi distrutti: «Lì viveva gente comune»</v>
+        <v>Laura Santi: «La sclerosi multipla è diventata crudele. Ora sono felice di poter morire»</v>
       </c>
       <c r="B13" t="str">
-        <v>https://www.corriere.it/esteri/24_settembre_21/rabbia-lacrime-e-paura-tra-i-palazzi-distrutti-li-viveva-gente-comune-53c84f2e-381e-41b3-92aa-f57cbe30exlk.shtml</v>
+        <v>https://www.corriere.it/cronache/24_novembre_15/laura-santi-suicidio-assistito-53df60e4-6047-43d8-aa4b-01e53ef8bxlk.shtml</v>
+      </c>
+      <c r="C13" t="str">
+        <v>di Giusi Fasano</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>VIDEO - Israele, oltre 100 missili dal Libano</v>
+        <v>Coca dietetica, duetti sul palco: una serata a Mar-a-Lago dove Trump prepara il governo e canta con Musk «God Bless America»</v>
       </c>
       <c r="B14" t="str">
-        <v>https://video.corriere.it/esteri/israele-oltre-100-missili-dal-libano-fanno-tre-feriti-soccorritori-al-lavoro-vicino-ad-haifa/e9249e5f-d37f-4750-b378-78ee5c69exlk</v>
+        <v>https://www.corriere.it/esteri/24_novembre_14/mar-a-lago-trump-musk-9ea27e8e-f4a9-4731-88ad-fd288a694xlk.shtml</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>VIDEO - Libano, le immagini delle esplosioni nella notte</v>
+        <v>Valter, il corriere Amazon: 150 pacchi al giorno in sei ore: «Non li portavo tutti, mi hanno licenziato»</v>
       </c>
       <c r="B15" t="str">
-        <v>https://video.corriere.it/esteri/libano-le-immagini-delle-esplosioni-nella-notte/7cf70cd9-c155-4d77-b3c7-c9cfa0b87xlk</v>
+        <v>https://corrierefiorentino.corriere.it/notizie/cronaca/24_novembre_13/valter-il-corriere-amazon-150-pacchi-al-giorno-in-sei-ore-licenziato-perche-non-riusciva-a-portarli-tutti-3cbc322e-dfac-47cf-a8f9-b9fe115c2xlk.shtml</v>
+      </c>
+      <c r="C15" t="str">
+        <v>di Jacopo Storni</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Kiev: «Distrutte migliaia di tonnellate di armi russe, anche della Corea del Nord»</v>
+        <v>Incendio in una casa di riposo a Saragozza: almeno 10 morti. Sotto accusa le misure di sicurezza</v>
       </c>
       <c r="B16" t="str">
-        <v>https://www.corriere.it/esteri/diretta-live/24_settembre_22/ucraina-russia-in-guerra-le-notizie-di-oggi-in-diretta-mosca-non-parteciperemo-al-secondo-summit-per-la-pace-kiev-distrutte-migliaia-di-tonnellate-di-armi-russe.shtml</v>
+        <v>https://www.corriere.it/cronache/24_novembre_15/spagna-incendio-nella-casa-di-riposo-di-zaragoza-almeno-10-morti-c84db891-e69d-43d3-a028-853c73c8cxlk.shtml</v>
+      </c>
+      <c r="C16" t="str">
+        <v>di Redazione Cronache</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Meloni e il no alle armi in Russia: non significa indietreggiare su Kiev</v>
+        <v>Mercalli: «Io bersaglio dei negazionisti. La più grande fake news sul clima? Annibale che passa le Alpi»</v>
       </c>
       <c r="B17" t="str">
-        <v>https://roma.corriere.it/notizie/politica/24_settembre_21/meloni-no-alle-armi-in-russia-a42801ea-1c30-4e29-8580-0ca184d90xlk.shtml</v>
+        <v>https://corrieredeltrentino.corriere.it/notizie/cronaca/24_novembre_15/il-climatologo-luca-mercalli-da-bianca-berlinguer-lasciai-lo-studio-io-bersaglio-dei-negazionisti-la-fake-piu-grande-su-annibale-0091488e-53c1-40a3-9e51-f213dda3dxlk.shtml</v>
+      </c>
+      <c r="C17" t="str">
+        <v>di Alessandro Rigamonti</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Le pressioni sulla moglie di Sangiuliano: Boccia la contattò più volte per dirle della relazione con il marito</v>
+        <v>Come (e quanto) abbassare il colesterolo Ldl, il «killer silenzioso»</v>
       </c>
       <c r="B18" t="str">
-        <v>https://roma.corriere.it/notizie/cronaca/24_settembre_22/federica-corsini-moglie-sangiuliano-pressioni-boccia-8b384a65-25de-489a-b268-b2e8cf707xlk.shtml</v>
+        <v>https://www.corriere.it/salute/tempo-della-salute/notizie/come-quanto-abbassare-colesterolo-ldl-killer-silenzioso-responsabile-infarti-ictus-7c4b04d8-a2ae-11ef-8263-b8c1a28105b5.shtml</v>
+      </c>
+      <c r="C18" t="str">
+        <v>di Elena Meli</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Polizza casa, è scontro nella maggioranza. Ritirato l'emendamento, ma resta l’obbligo per le imprese</v>
+        <v>Mea, la compagnia libanese che atterra tra le bombe è la «più tosta del mondo» o la più incosciente?</v>
       </c>
       <c r="B19" t="str">
-        <v>https://roma.corriere.it/notizie/politica/24_settembre_22/polizza-casa-eventi-estremi-emendamento-assicurazioni-1d3e9d24-e2a2-4c92-a68a-eb0b7d9fcxlk.shtml</v>
+        <v>https://www.corriere.it/economia/trasporti/aerei/24_novembre_15/mea-la-compagnia-libanese-che-atterra-tra-le-bombe-e-la-piu-tosta-del-mondo-o-la-piu-incosciente-3670fb23-64f6-49f7-9423-c917fe7d6xlk.shtml</v>
+      </c>
+      <c r="C19" t="str">
+        <v>di Leonard Berberi</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Tajani: «Marina Berlusconi? Non sono strumento di nessuno. I rapporti con Meloni? Sempre uguali»</v>
+        <v>Fegato grasso, come</v>
       </c>
       <c r="B20" t="str">
-        <v>https://roma.corriere.it/notizie/politica/24_settembre_22/antonio-tajani-intervista-86db6d76-b935-4d6a-8b0c-d6ab12a23xlk.shtml</v>
+        <v>https://video.corriere.it/il-tempo-della-salute-la-seconda-giornata/40b9a7a3-916e-4aa3-b8a6-5606fb8bfxlk</v>
+      </c>
+      <c r="C20" t="str">
+        <v>A cura di Luigi Ripamonti</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Addio a Paola Marella: gli inizi da architetta, poi il successo da agente immobiliare tv. Ha lavorato fino all'ultimo |</v>
+        <v>l'importanza della lettura</v>
       </c>
       <c r="B21" t="str">
-        <v>https://www.corriere.it/spettacoli/24_settembre_22/chi-era-paola-marella-la-laurea-in-architettura-il-successo-in-tv-come-agente-immobiliare-la-malattia-cf651975-96dd-4968-bc7e-5df2810fdxlk.shtml</v>
+        <v>https://www.corriere.it/salute/tempo-della-salute/notizie/tempo-salute-2024-tutti-corsi-gratuiti-che-potete-fare-111c8728-9de4-11ef-bcf7-df0080e29a51.shtml</v>
+      </c>
+      <c r="C21" t="str">
+        <v>di Redazione Salute</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>L'ultimo video sui social quattro giorni fa</v>
+        <v>Salute mentale, perché</v>
       </c>
       <c r="B22" t="str">
-        <v>https://video.corriere.it/moda/paola-marella-e-morta-l-ultimo-video-sui-social-quattro-giorni-fa/7b5c53a3-9d87-4fea-90dc-307cbf025xlk</v>
+        <v>https://www.corriere.it/salute/tempo-della-salute/notizie/salute-mentale-perche-giovani-sono-crisi-ruolo-societa-adulti-24f905b2-a101-11ef-8ca7-0fba9a89fa4d.shtml</v>
+      </c>
+      <c r="C22" t="str">
+        <v>di Silvia Turin</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>La sua casa di Milano e gli  armadi all'insegna dell'ordine: «Il mio stile alla Hepburn»</v>
+        <v>Assegno unico figli, ecco le date di novembre 2024 per l’accredito (e gli importi in base all’Isee)</v>
       </c>
       <c r="B23" t="str">
-        <v>https://milano.corriere.it/notizie/cronaca/24_settembre_22/paola-marella-la-sua-casa-di-milano-e-suoi-armadi-all-insegna-dell-ordine-e-dell-eleganza-il-mio-stile-alla-audrey-hepburn-a06247ae-17e5-456b-bbcf-599a417bdxlk.shtml</v>
+        <v>https://www.corriere.it/economia/lavoro/24_novembre_15/pagamento-assegno-unico-novembre-2024-ecco-le-date-per-l-accredito-e-gli-importi-in-base-all-isee-8c205ddb-8a74-42d5-8e80-fbabdbb1dxlk.shtml</v>
+      </c>
+      <c r="C23" t="str">
+        <v>di Redazione Economia</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Rita Dalla Chiesa: «Mio padre ucciso per fare un favore</v>
+        <v>Irpef, come potrebbe scendere per la classe media? Le simulazioni per classe di reddito</v>
       </c>
       <c r="B24" t="str">
-        <v>https://www.corriere.it/spettacoli/24_settembre_21/rita-dalla-chiesa-padre-ucciso-favore-politico-4a51c581-e828-479a-89e7-90e94a57axlk.shtml</v>
+        <v>https://www.corriere.it/economia/tasse/cards/irpef-il-taglio-per-il-ceto-medio-l-aliquota-dal-35-al-33-chi-risparmia-e-quanto-le-simulazioni/taglio-irpef-perche-tutto-dipende-dal-concordato-preventivo_principale.shtml</v>
+      </c>
+      <c r="C24" t="str">
+        <v>di Massimiliano Jattoni Dall’Asén e Redazione Economia</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>a un politico». Poi il silenzio sul nome di Andreotti|</v>
+        <v>Wizz Air, 50 biglietti gratis a Natale per gli studenti fuori sede del Sud Italia</v>
       </c>
       <c r="B25" t="str">
-        <v>https://www.corriere.it/spettacoli/24_settembre_21/rita-dalla-chiesa-padre-ucciso-favore-politico-4a51c581-e828-479a-89e7-90e94a57axlk.shtml</v>
+        <v>https://www.corriere.it/economia/trasporti/aerei/24_novembre_15/wizz-air-50-biglietti-gratis-a-natale-per-gli-studenti-fuori-sede-del-sud-italia-d3d3ec7c-d858-41ac-b24a-fa24bd9b5xlk.shtml</v>
+      </c>
+      <c r="C25" t="str">
+        <v>di Redazione Economia</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Imane Khelif alle sfilate di Milano: la campionessa olimpica di pugilato raggiante e accolta come una star</v>
+        <v>Crac Pop Bari, il primo conto per gli ex vertici: la Cassazione conferma le multe Consob (2 milioni)</v>
       </c>
       <c r="B26" t="str">
-        <v>https://milano.corriere.it/notizie/cronaca/24_settembre_22/imane-khelif-a-milano-la-campionessa-olimpica-di-pugilato-accolta-come-una-star-alle-sfilate-della-settimana-della-moda-5afd3431-8311-41f4-80d5-a8b8cda2axlk.shtml</v>
+        <v>https://www.corriere.it/economia/finanza/24_novembre_15/crac-pop-bari-arriva-il-primo-conto-per-gli-ex-vertici-la-cassazione-conferma-le-multe-consob-2-milioni-6e5969fe-616e-42dd-8167-206427febxlk.shtml</v>
+      </c>
+      <c r="C26" t="str">
+        <v>di Mario Gerevini</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Le accuse prima della finale per l'oro, il ginecologo della boxe: «È uomo, basta un'ecografia». Ma il test usato era vecchio di 25 anni</v>
+        <v>Generali, utile a 3 miliardi (+5%) nonostante le catastrofi. Banca Generali: «Azionisti soddisfatti»</v>
       </c>
       <c r="B27" t="str">
-        <v>https://www.corriere.it/sport/olimpiadi/24_agosto_09/khelif-nuove-accuse-ginecologo-finale-oro-il-ginecologo-parigi-2024-6ef8e340-3460-4adf-a004-67b178392xlk.shtml</v>
+        <v>https://www.corriere.it/economia/finanza/24_novembre_15/generali-utile-a-3-miliardi-5-nonostante-le-catastrofi-banca-generali-azionisti-soddisfatti-c8d2f9ad-9f79-43c5-8c09-b30289814xlk.shtml</v>
+      </c>
+      <c r="C27" t="str">
+        <v>di Daniela Polizzi</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Montezemolo: «Triste vedere l'Italia senza produzione di auto. Nessuno si indigna»</v>
+        <v>Salento, tre lupi fanno irruzione in una villa e portano via il cane</v>
       </c>
       <c r="B28" t="str">
-        <v>https://torino.corriere.it/notizie/economia/24_settembre_21/montezemolo-triste-vedere-l-italia-senza-produzione-di-auto-c-e-da-indignarsi-ma-sento-un-silenzio-assordante-84c76061-9747-4a9c-9ce4-c710455e0xlk.shtml</v>
+        <v>https://video.corrieredelmezzogiorno.corriere.it/salento-tre-lupi-fanno-irruzione-in-una-villa-e-portano-via-il-cane/03c16c0c-468b-4d26-9f71-4dea130c3xlk</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Il giudice sull’eredità degli Agnelli: «Disegno criminoso per sfuggire alle maglie del Fisco»</v>
+        <v>XFactor, Mimì canta Dalla (per la prima volta in italiano) ed emoziona anche i giudici</v>
       </c>
       <c r="B29" t="str">
-        <v>https://torino.corriere.it/notizie/economia/24_settembre_22/eredita-agnelli-fisco-tasse-f03d6596-8da2-4244-9a2b-c8f05ffe9xlk.shtml</v>
+        <v>https://video.corriere.it/spettacoli/xfactor-mimi-canta-dalla-per-la-prima-volta-in-italiano-ed-emoziona-anche-i-giudici/8312076d-a954-4abc-b7df-e410cacc5xlk</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Marco Tardelli: «L’urlo al  Mundial, Myrta, la lite tra Pelé e Maradona. A 70 anni pianto ulivi: il prossimo è per Bearzot»</v>
+        <v>La Corrida, il ballo del Murato-Rino fa scatenare orchestra e pubblico</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.corriere.it/cronache/24_settembre_22/marco-tardelli-intervista-5abd1efd-cd6e-48ac-bb07-cb50bc24axlk.shtml</v>
+        <v>https://video.corriere.it/spettacoli/la-corrida-il-ballo-del-murato-rino-fa-scatenare-orchestra-e-pubblico/f0ed6053-a1f3-4031-9a35-1ead7759exlk</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>La Bibbia, il romanzo che parla a tutti noi. Un capolavoro con un solo protagonista: Dio</v>
+        <v>Bologna, autobus prende fuoco in via degli Orti: fiamme alte e alberi bruciati</v>
       </c>
       <c r="B31" t="str">
-        <v>https://www.corriere.it/cultura/24_settembre_21/bibbia-grande-romanzo-che-parla-tutti-noi-perche-ci-riguarda-4e8de512-7836-11ef-b104-7c5d7b25d3bf.shtml</v>
+        <v>https://video.corrieredibologna.corriere.it/bologna-autobus-prende-fuoco-in-via-degli-orti-fiamme-alte-e-alberi-bruciati/928ce18a-0b6c-46cf-b7e9-401981e7axlk</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Islanda, panico (e pallottole) per un orso: era arrivato dalla Groenlandia su un iceberg</v>
+        <v>Torna percorribile il sottopasso di Porta Pia, le prime immagini.</v>
       </c>
       <c r="B32" t="str">
-        <v>https://www.corriere.it/esteri/24_settembre_21/islanda-orso-ucciso-groenlandia-iceberg-d84e2160-b4ab-4bbb-a49e-98dccd003xlk.shtml</v>
+        <v>https://video.corriere.it/roma/sottopasso-di-porta-pia-ecco-le-prime-immagini-gualtieri-tutti-gli-interventi-termineranno-entro-dicembre-/73181e95-d858-419d-9c71-70621964dxlk</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>VIDEO - L'orso ucciso trasportato in elicottero: le immagini della tv islandese</v>
+        <v>Come è andato l'incontro Trump-Biden? L'esilarante video realizzato con l'AI</v>
       </c>
       <c r="B33" t="str">
-        <v>https://video.corriere.it/esteri/islanda-ucciso-un-orso-che-era-arrivato-su-un-iceberg-le-immagini/1b518eed-de7d-4cca-85ff-eb99b1d2cxlk</v>
+        <v>https://video.corriere.it/esteri/come-e-andato-l-incontro-trump-biden-l-esilarante-video-realizzato-con-l-intelligenza-artificiale/c7465c2d-a935-4ca2-a689-e70eaeaf7xlk</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Mozzo, 2 milioni vinti al Gratta e vinci. La telefonata alla tabaccheria: «Vi faremo un pensierino»</v>
+        <v>Ladro ferito dalla polizia dopo un furto ottiene 480 mila euro di indennizzo. «Mai ricevuti»</v>
       </c>
       <c r="B34" t="str">
-        <v>https://bergamo.corriere.it/notizie/cronaca/24_settembre_22/mozzo-2-milioni-vinti-al-gratta-e-vinci-la-telefonata-alla-tabaccheria-vi-faremo-un-pensierino-4bfe65c4-e255-4edb-b187-17fb7dfbfxlk.shtml</v>
+        <v>https://torino.corriere.it/notizie/cronaca/24_novembre_15/torino-dopo-un-furto-scappa-e-viene-ferito-dalla-polizia-dopo-11-anni-chiede-un-indennizzo-di-480-mila-euro-bc7f51e8-f44d-486b-9949-93e5d9bc6xlk.shtml</v>
+      </c>
+      <c r="C34" t="str">
+        <v>di Simona Lorenzetti</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>«Un uomo non può pretendere che la moglie in menopausa assuma ormoni per soddisfare le sue voglie»</v>
+        <v>Belluno, coppia di Tel Aviv rifiutata da un hotel: «Israeliani responsabili di genocidio, non graditi»</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.corriere.it/sette/editoriali/24_settembre_22/posta-gramellini-sesso-menopausa-terapie-ormonali-da290100-2186-4844-ad87-aeb7351e3xlk.shtml</v>
+        <v>https://corrieredelveneto.corriere.it/notizie/belluno/cronaca/24_novembre_14/belluno-coppia-di-tel-aviv-rifiutata-da-un-hotel-israeliani-responsabili-di-genocidio-non-sono-ospiti-graditi-e793099c-3a2e-4346-9c39-ba3ea1b40xlk.shtml</v>
+      </c>
+      <c r="C35" t="str">
+        <v>di Ugo Cennamo e Renato Piva</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Fedez contro Tony Effe, il dissing tra rapper è una gara tra insulti e sessismo. E Ferragni stronca il «lieto fine» dell'ex</v>
+        <v>La Cina e noi: perché il «Regno di Mezzo» è sempre stato interessato all'Occidente</v>
       </c>
       <c r="B36" t="str">
-        <v>https://www.corriere.it/cronache/24_settembre_22/fedez-tony-effe-dissing-chiara-ferragni-allucinazione-collettiva-3dd3c5a5-65fb-4485-abe8-01439f8b1xlk.shtml</v>
+        <v>https://video.corriere.it/esteri/la-cina-e-noi-perche-il-regno-di-mezzo-e-sempre-stato-interessato-all-occidente/da3761c1-8f1d-4473-a7de-b6a0e3b26xlk</v>
+      </c>
+      <c r="C36" t="str">
+        <v>a cura di Iacopo Gori - Produzione CorriereTv</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v/>
+        <v>L'avvocata: «Io, incinta al nono mese e il no di una giudice al rinvio della causa. Lesi i miei diritti»</v>
       </c>
       <c r="B37" t="str">
-        <v>https://www.corriere.it/padiglione-italia-grasso/24_settembre_22/tutti-guerrieri-con-il-voto-degli-altri-89b0b2d2-cd6a-4f7d-9ff1-ebd94d39axlk.shtml</v>
+        <v>https://www.corriere.it/cronache/24_novembre_15/io-avvocata-incinta-e-il-no-del-giudice-al-rinvio-della-causa-6f1b1a2f-38f3-4336-954f-cca3718d1xlk.shtml</v>
+      </c>
+      <c r="C37" t="str">
+        <v>di Alfio Sciacca</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Tutti guerrieri (con il voto degli altri)</v>
+        <v>Dolomiti Superski inizia a «sparare» la neve, da Cortina a Plan de Corones: quali sono i primi impianti sciistici ad aprire</v>
       </c>
       <c r="B38" t="str">
-        <v>https://www.corriere.it/padiglione-italia-grasso/24_settembre_22/tutti-guerrieri-con-il-voto-degli-altri-89b0b2d2-cd6a-4f7d-9ff1-ebd94d39axlk.shtml</v>
+        <v>https://corrieredeltrentino.corriere.it/notizie/cronaca/24_novembre_15/dolomiti-superski-inizia-a-sparare-la-neve-da-cortina-a-plan-de-corones-i-primi-impianti-ad-aprire-7a544b71-2a45-44bc-b240-737b7c209xlk.shtml</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Gli italiani in Europa decidono in ordine sparso sulle armi all’Ucraina</v>
+        <v>Lidia Ravera: «Esordii con 3 milioni di copie, ma il talento è stato un nemico. Tra noi scrittori oggi si parla solo di agenti e case editrici»</v>
       </c>
       <c r="B39" t="str">
-        <v>https://www.corriere.it/padiglione-italia-grasso/24_settembre_22/tutti-guerrieri-con-il-voto-degli-altri-89b0b2d2-cd6a-4f7d-9ff1-ebd94d39axlk.shtml</v>
+        <v>https://www.corriere.it/cronache/24_novembre_15/lidia-ravera-libro-intervista-bc5ca1cd-9dd1-4ada-9436-8d10e4623xlk.shtml</v>
+      </c>
+      <c r="C39" t="str">
+        <v>di Eugenio Murrali</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Accumulatori seriali che non buttano via nulla. L'identikit di chi conserva tutto (e quali sono i rischi)</v>
+        <v>Da soli (e felici) al ristorante, non è più un tabù: in crescita le prenotazioni per uno</v>
       </c>
       <c r="B40" t="str">
-        <v>https://www.corriere.it/salute/neuroscienze/24_settembre_21/accumulatori-seriali-che-non-riescono-a-buttare-via-nulla-l-identikit-di-chi-conserva-tutto-01c05f43-8aa2-4683-863f-4d41ee538xlk.shtml</v>
+        <v>https://www.corriere.it/cronache/24_novembre_15/prenotazioni-singole-ristorante-c40904bf-b94e-4e1d-8bdb-ef446bf5bxlk.shtml</v>
+      </c>
+      <c r="C40" t="str">
+        <v>di Candida Morvillo</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Accumulatori seriali: il disagio dei figli e le conseguenze sulla loro crescita</v>
+        <v>Ultima parola: «Zzz!».</v>
       </c>
       <c r="B41" t="str">
-        <v>https://www.corriere.it/salute/figli-genitori/bambino/24_settembre_21/accumulatori-seriali-il-disagio-dei-figli-e-le-conseguenze-sulla-loro-crescita-279eff95-e994-4c0d-a09f-6d38c6d35xlk.shtml</v>
+        <v>https://www.corriere.it/esteri/24_novembre_14/l-academie-francaise-vara-la-nuova-lingua-francese-con-l-ultima-edizione-del-dizionario-l-ultima-parola-e-zzz-c7c2e0d7-5471-41ee-a62a-a53ef227bxlk.shtml</v>
+      </c>
+      <c r="C41" t="str">
+        <v>di Stefano Montefiori, corrispondente da Parigi</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Sonnambulismo</v>
+        <v>Rapina alla Banca Centrale di Barcellona, la storia vera: il tentato golpe del 23-F, l'assalto durato 37 ore, i misteri sul ruolo del governo</v>
       </c>
       <c r="B42" t="str">
-        <v>https://www.corriere.it/salute/neuroscienze/24_settembre_21/sonnambulismo-e-non-solo-che-cosa-succede-nel-cervello-di-chi-ha-il-sonno-agitato-66391e33-3009-44af-8373-3b5f78e40xlk.shtml</v>
+        <v>https://www.corriere.it/esteri/24_novembre_14/rapina-banco-central-netflix-storia-veria-3ba2be74-7adc-47d5-834c-2cebada80xlk.shtml</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>(e non solo): cosa succede nel cervello di chi</v>
+        <v>Nasce l'Appeals Centre Europe: ora gli utenti possono contestare le decisioni prese dai social sui contenuti</v>
       </c>
       <c r="B43" t="str">
-        <v>https://www.corriere.it/salute/neuroscienze/24_settembre_21/sonnambulismo-e-non-solo-che-cosa-succede-nel-cervello-di-chi-ha-il-sonno-agitato-66391e33-3009-44af-8373-3b5f78e40xlk.shtml</v>
+        <v>https://www.corriere.it/tecnologia/24_novembre_14/nasce-l-appeals-centre-europe-ora-gli-utenti-possono-contestare-le-decisioni-prese-dai-social-sui-contenuti-13316a3a-c53c-4c34-84d8-8dff93635xlk.shtml</v>
+      </c>
+      <c r="C43" t="str">
+        <v>di Michela Rovelli</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>ha il sonno agitato</v>
+        <v>Salento, tre lupi fanno irruzione in una villa e trascinano via il cane per azzannarlo</v>
       </c>
       <c r="B44" t="str">
-        <v>https://www.corriere.it/salute/neuroscienze/24_settembre_21/sonnambulismo-e-non-solo-che-cosa-succede-nel-cervello-di-chi-ha-il-sonno-agitato-66391e33-3009-44af-8373-3b5f78e40xlk.shtml</v>
+        <v>https://video.corrieredelmezzogiorno.corriere.it/salento-tre-lupi-fanno-irruzione-in-una-villa-e-portano-via-il-cane/03c16c0c-468b-4d26-9f71-4dea130c3xlk</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Allergie alimentari, davvero serve tenere i bimbi alla larga da latte, uova, pesce e simili?</v>
+        <v>Gong suonato dopocena e «urla invereconde», la denuncia: in aula 112 audio e 20 testimoni</v>
       </c>
       <c r="B45" t="str">
-        <v>https://www.corriere.it/salute/figli-genitori/neonato/svezzamento/list/24_settembre_21/allergie-alimentari-che-cosa-sono-come-comportarsi-e-perche-e-meglio-allenarsi-fin-dallo-svezzamento-0c52ffee-113d-427a-a595-45148a0a5xlk.shtml</v>
+        <v>https://corrieredeltrentino.corriere.it/notizie/cronaca/24_novembre_14/gong-suonato-dopocena-e-urla-invereconde-nella-notte-denunciata-in-aula-112-registrazioni-e-20-vicini-a-testimoniare-db3122bf-87d0-451e-9f69-52455bcb9xlk.shtml</v>
+      </c>
+      <c r="C45" t="str">
+        <v>di Giampaolo Chavan</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Ryanair e la «lite» con l’aeroporto di Bergamo sugli incentivi: meno voli d’inverno e taglio di 4 aerei</v>
+        <v>Diventare giornalisti nell'era digitale: le lezioni di Cazzullo, Gabanelli, Gramellini, Saviano</v>
       </c>
       <c r="B46" t="str">
-        <v>https://www.corriere.it/economia/trasporti/aerei/24_settembre_22/ryanair-e-la-lite-con-l-aeroporto-di-bergamo-sugli-incentivi-meno-voli-d-inverno-e-taglio-di-4-aerei-afb367cf-463c-4d96-904c-0c9e75fc8xlk.shtml</v>
+        <v>https://www.corriere.it/cronache/24_novembre_12/diventare-giornalisti-nell-era-digitale-le-lezioni-di-cazzullo-gabanelli-gramellini-saviano-e-delle-firme-del-corriere-a95d749f-eae3-4bfa-8ca0-618a81f36xlk.shtml</v>
+      </c>
+      <c r="C46" t="str">
+        <v>di Redazione online</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Tassa sugli extraprofitti, un contributo solidale dell'1-2%: l'ipotesi del governo</v>
+        <v>Musk e Mattarella, lo strano duello</v>
       </c>
       <c r="B47" t="str">
-        <v>https://www.corriere.it/economia/finanza/24_settembre_22/extraprofitti-l-ipotesi-di-un-contributo-solidale-dell-1-2-bonus-di-natale-da-100-euro-solo-per-pochi-3972f9ba-95d2-4946-9625-83a6804b8xlk.shtml</v>
+        <v>https://www.corriere.it/lodicoalcorriere/24_novembre_15/musk-e-mattarella-lo-strano-duello-rd-064de135-96b0-4a91-acdc-c006f0b7exlk.shtml</v>
+      </c>
+      <c r="C47" t="str">
+        <v>di Aldo Cazzullo</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Osnato (FdI): la tassa sugli extraprofitti? Sì se necessario, ma nessun intento punitivo</v>
+        <v>La maggioranza Ursula in crisi. Laura e il fine vita. Emilia e Umbria al voto</v>
       </c>
       <c r="B48" t="str">
-        <v>https://www.corriere.it/economia/finanza/24_settembre_22/osnato-fdi-la-tassa-sugli-extraprofitti-si-se-necessario-ma-nessun-intento-punitivo-23544501-be7f-44f7-949f-3703d838exlk.shtml</v>
+        <v>https://www.corriere.it/podcast/daily/24_novembre_15/maggioranza-ursula-crisi-laura-fine-vita-emilia-romagna-umbria-voto-540d84d6-a2b4-11ef-8263-b8c1a28105b5.shtml</v>
+      </c>
+      <c r="C48" t="str">
+        <v>di Francesco Giambertone</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Argentina, Milei taglia le pensioni mentre cresce la povertà: l’inflazione s’impenna e supera il 236%</v>
+        <v>Il ritorno del bitcoin e dei suoi compagni. Ma conviene comprarli?</v>
       </c>
       <c r="B49" t="str">
-        <v>https://www.corriere.it/economia/finanza/24_settembre_22/argentina-milei-taglia-le-pensioni-mentre-cresce-la-poverta-l-inflazione-s-impenna-e-supera-il-236-7e26282a-53c7-4741-9599-b0dc07fc6xlk.shtml</v>
+        <v>https://video.corriere.it/economia/non-solo-numeri-daniele-manca/il-ritorno-del-bitcoin-e-dei-suoi-compagni/e20cba42-b4e3-4613-bcda-8eb8220d6xlk</v>
+      </c>
+      <c r="C49" t="str">
+        <v>di Daniele Manca</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Elon Musk diventerà il primo «trilionario» al mondo nel 2027 (e già ora è l’uomo più ricco)</v>
+        <v>Trump e Musk cantano «God Bless America» con il tenore Chris Macchio: il video esclusivo</v>
       </c>
       <c r="B50" t="str">
-        <v>https://www.corriere.it/economia/finanza/24_settembre_21/elon-musk-diventera-il-primo-trilionario-al-mondo-nel-2027-e-gia-ora-e-l-uomo-piu-ricco-del-pianeta-c513fc61-2e0c-4ccb-8b39-d48b76b3axlk.shtml</v>
+        <v>https://video.corriere.it/esteri/trump-e-musk-cantano-god-bless-america-con-il-tenore-chris-macchio/408e6f45-2e42-44fa-985c-300dd2e20xlk</v>
+      </c>
+      <c r="C50" t="str">
+        <v>di Viviana Mazza, inviata a Mar-a-Lago</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Unicredit, l’invito del governo tedesco a entrare in Commerzbank: poi il passo indietro</v>
+        <v>Maria De Filippi: «Io accusata di aver rubato l'eredità di Costanzo. Falso, ho rinunciato a tutto»</v>
       </c>
       <c r="B51" t="str">
-        <v>https://www.corriere.it/economia/finanza/24_settembre_22/unicredit-l-invito-del-governo-tedesco-a-entrare-in-commerzbank-poi-il-passo-indietro-9fd88d9a-d03c-4d0d-a5e3-27d6eb450xlk.shtml</v>
+        <v>https://video.corriere.it/spettacoli/maria-de-filippi-mi-hanno-accusata-di-aver-rubato-l-eredita-di-maurizio-costanzo-invece-ho-rinunciato-a-tutto-a-favore-dei-figli/d6255d16-9385-4998-b783-129698893xlk</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>La nave da crociera viene «allungata» per essere ancora più grande: il timelapse</v>
+        <v>Maria De Filippi: «Io accusata di aver rubato l'eredità di Costanzo. Falso, ho rinunciato a tutto»</v>
       </c>
       <c r="B52" t="str">
-        <v>https://video.corriere.it/video-virali/la-grossa-nave-da-crociera-viene-allungata-per-diventare-ancora-piu-grande-il-timelapse/c5c29e0d-981b-4f26-bd39-d8a886b3exlk</v>
+        <v>https://video.corriere.it/spettacoli/maria-de-filippi-mi-hanno-accusata-di-aver-rubato-l-eredita-di-maurizio-costanzo-invece-ho-rinunciato-a-tutto-a-favore-dei-figli/d6255d16-9385-4998-b783-129698893xlk</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Rita Dalla Chiesa: «Mio padre ucciso per un favore a un politico». Poi il silenzio su Andreotti</v>
+        <v>Martin e Bagnaia alla resa dei conti, via alle prove libere. Il Gp di Spagna</v>
       </c>
       <c r="B53" t="str">
-        <v>https://video.corriere.it/cronaca/rita-dalla-chiesa-mi-padre-ucciso-per-un-favore-a-un-politico-poi-il-silenzio-sul-nome-di-andreotti/cb1aebc8-bc2a-4906-9c48-033010597xlk</v>
+        <v>https://www.corriere.it/sport/motomondiale/diretta-live/24_novembre_15/motogp-spagna-libere-prequalifiche-diretta.shtml</v>
+      </c>
+      <c r="C53" t="str">
+        <v>di Paolo Lorenzi e Redazione Sport</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>La Ferrari di Sainz a muro nelle qualifiche del Gp di Singapore: è bandiera rossa</v>
+        <v>Zampaglione si racconta: «Ero semi-incosciente, con dolori fortissimi e sonde ovunque: ho temuto per la mia vita»</v>
       </c>
       <c r="B54" t="str">
-        <v>https://video.corriere.it/sport/le-ferrari-di-sainz-a-muro-nelle-qualifiche-del-gp-di-singapore-e-bandiera-rossa/6b454196-1685-43c6-bc2b-1d43280c5xlk</v>
+        <v>https://www.corriere.it/spettacoli/24_novembre_15/federico-zampaglione-tiromancino-intervista-23d46c61-4c03-41e1-8210-c4a0eaa64xlk.shtml</v>
+      </c>
+      <c r="C54" t="str">
+        <v>di Barbara Visentin</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Madonna alla sfilata di Dolce e Gabbana a Milano: in prima fila con velo in pizzo nero</v>
+        <v>X Factor 2024,</v>
       </c>
       <c r="B55" t="str">
-        <v>https://video.corriere.it/moda/madonna-alla-sfilata-di-dolce-e-gabbana-a-milano-in-prima-fila-con-velo-in-pizzo-nero/328f016c-a5aa-40e8-9d4d-876855262xlk</v>
+        <v>https://www.corriere.it/spettacoli/24_novembre_15/x-factor-2024-le-pagelle-del-quarto-live-paola-in-versione-diavoletta-voto-7-lauro-passa-dalla-pieta-al-tilt-voto-4-9335320e-505c-4dd8-be08-3f0d7ee91xlk.shtml</v>
+      </c>
+      <c r="C55" t="str">
+        <v>di Arianna Ascione</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>La superluna sorge dietro lo storico faro: il video suggestivo dall'Australia</v>
+        <v>Castagne al forno, in padella e anche a microonde:</v>
       </c>
       <c r="B56" t="str">
-        <v>https://video.corriere.it/video-virali/la-superluna-sorge-dietro-lo-storico-faro-il-video-suggestivo-dall-australia/3b0da04f-05be-4a43-98c4-4d8dcbd9axlk</v>
+        <v>https://www.corriere.it/cook/news/cards/castagne-forno-padella-anche-microonde-guida-definitiva-prepararle/come-cucinare-castagne_principale.shtml</v>
+      </c>
+      <c r="C56" t="str">
+        <v>di Gabriele Principato</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Maneskin, Victoria De Angelis: dj set alla Fashion Week di Milano</v>
+        <v>Francesca De André attacca di nuovo papà Cristiano: «Rideva del mio tumore. Assente anche quando ero in ospedale»</v>
       </c>
       <c r="B57" t="str">
-        <v>https://video.corriere.it/roma/maneskin-victoria-de-angelis-dj-set-alla-fashion-week-di-milano/6dedebeb-4e3a-46b8-b8e4-80c0bce5axlk</v>
+        <v>https://www.corriere.it/spettacoli/24_novembre_14/francesca-de-andre-attacca-di-nuovo-il-padre-cristiano-rideva-del-mio-tumore-assente-anche-quando-ero-in-ospedale-e0aff63c-d2c1-4c78-94ff-3ebc39f67xlk.shtml</v>
+      </c>
+      <c r="C57" t="str">
+        <v>di Federica Bandirali</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Di Maio: «Grillo e i contratti? Li stracci e sarà libero per la sfida a Conte»</v>
+        <v>Da oggi scatta l’obbligo di gomme invernali: tutte le regole per evitare le multe</v>
       </c>
       <c r="B58" t="str">
-        <v>https://www.corriere.it/politica/24_settembre_22/di-maio-contratti-grillo-conte-intervista-1f543abb-c8e7-4539-b727-802931b42xlk.shtml</v>
+        <v>https://www.corriere.it/motori/news/24_novembre_15/da-oggi-scatta-l-obbligo-gomme-invernali-tutte-regole-evitare-multe-c52546ee-a1e8-11ef-b9f2-edd2e53a540b.shtml</v>
+      </c>
+      <c r="C58" t="str">
+        <v>di Redazione Motori</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Campiello 2024 a Federica Manzon: «Dedicato a chi attraversa i confini»</v>
+        <v>A Milano è già Natale: a 'Palazzo Magia' mille metri quadrati di luci, decorazioni e dolci</v>
       </c>
       <c r="B59" t="str">
-        <v>https://www.corriere.it/cultura/24_settembre_21/campiello-2024-federica-manzon-dedicato-chi-attraversa-confini-e7454b34-7853-11ef-b104-7c5d7b25d3bf.shtml</v>
+        <v>https://www.corriere.it/moda/24_novembre_15/a-milano-e-gia-natale-vincenzo-dascanio-crea-palazzo-magia-mille-metri-quadri-tra-luci-dolci-e-decorazioni-9cca35c3-0089-471a-8c5d-f4da24d83xlk.shtml</v>
+      </c>
+      <c r="C59" t="str">
+        <v>di Federica Bandirali</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Allarme criminalità in Cina, c'entra la disoccupazione?</v>
+        <v>Zapping frenetico e due sport a confronto: Sinner e Italia, com'è andato il derby in televisione</v>
       </c>
       <c r="B60" t="str">
-        <v>https://video.corriere.it/esteri/oriente-occidente/allarme-criminalita-in-cina-c-entra-la-disoccupazione/8b786ef3-37ac-44af-9083-f8fa14fc8xlk</v>
+        <v>https://www.corriere.it/sport/calcio/nations-league/24_novembre_15/sinner-nazionale-calcio-com-e-andato-derby-tv-16799e10-73d9-4e30-887a-18c5c2499xlk.shtml</v>
+      </c>
+      <c r="C60" t="str">
+        <v>di Aldo Grasso</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Mariuccia Rivano: «A 98 anni faccio windsurf, gioco a golf e ho un marito ‘giovane’. Il segreto? La dieta-non-dieta»</v>
+        <v>Atp Finals, Sinner implacabile: tre su tre. Batte anche Medvedev |</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.corriere.it/cook/news/24_settembre_21/mariuccia-rivano-a-98-anni-faccio-windsurf-gioco-golf-ho-marito-giovane-segreto-dieta-non-dieta-abaad3c2-7791-11ef-8432-f7c84cd0e473.shtml</v>
+        <v>https://www.corriere.it/sport/tennis/diretta-live/24_novembre_14/sinner-medvedev-atp-finals-diretta.shtml</v>
+      </c>
+      <c r="C61" t="str">
+        <v>di Gaia Piccardi, inviata a Torino, e Francesco Sessa</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Lavagno, l'ipotesi della Procura: «La madre ha sparato al figlio 15enne,</v>
+        <v>Lindsey Vonn, il ritorno della regina dello sci: i consigli per la dieta, il cane, Tiger Woods, la depressione</v>
       </c>
       <c r="B62" t="str">
-        <v>https://corrieredelveneto.corriere.it/notizie/verona/cronaca/24_settembre_21/vago-di-lavagno-l-ipotesi-dell-omicidio-suicidio-a-sparare-i-due-colpi-di-pistola-sarebbe-stata-la-donna-d4d445ed-db52-445b-a318-30e6bff39xlk.shtml</v>
+        <v>https://www.corriere.it/sport/cards/lindsey-vonn-sci-chi-e-ritorno/chi_principale.shtml</v>
+      </c>
+      <c r="C62" t="str">
+        <v>di Salvatore Riggio</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>poi si è suicidata»</v>
+        <v>Sembra un Tir, ma è un camper di superlusso (da 1,5 milioni di euro): ecco cosa c'è dentro</v>
       </c>
       <c r="B63" t="str">
-        <v>https://corrieredelveneto.corriere.it/notizie/verona/cronaca/24_settembre_21/vago-di-lavagno-l-ipotesi-dell-omicidio-suicidio-a-sparare-i-due-colpi-di-pistola-sarebbe-stata-la-donna-d4d445ed-db52-445b-a318-30e6bff39xlk.shtml</v>
+        <v>https://viaggi.corriere.it/news/cards/camper-di-lusso-virali-sul-web/</v>
+      </c>
+      <c r="C63" t="str">
+        <v>di  Elmar Burchia</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Bagnino multato per aver salvato una turista (senza avvisare), si va verso l'«archiviazione»</v>
+        <v>L'oroscopo di</v>
       </c>
       <c r="B64" t="str">
-        <v>https://corrieredelveneto.corriere.it/notizie/venezia-mestre/cronaca/24_settembre_22/niente-piu-multa-al-bagnino-di-venezia-che-ha-salvato-una-turista-senza-avvisare-la-capitaneria-concitazione-ed-emergenza-85bc815d-d8fa-4f17-b271-d57383115xlk.shtml</v>
+        <v>https://www.corriere.it/oroscopo/oggi-15-11-2024-di-paolo-fox/</v>
+      </c>
+      <c r="C64" t="str">
+        <v>di Paolo Fox</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Giacomo Gobbato accoltellato a Mestre, il padre: «Aiutava tutti senza pensarci»</v>
+        <v>Torna Nemo Bandera: tutte le novità e le conferme di «Il patriarca 2»</v>
       </c>
       <c r="B65" t="str">
-        <v>https://corrieredelveneto.corriere.it/notizie/venezia-mestre/cronaca/24_settembre_22/giacomo-gobbato-accoltellato-mestre-padre-8541f8e0-3421-4ebd-b16e-2120c8225xlk.shtml</v>
+        <v>https://style.corriere.it/spettacoli/tv/il-patriarca-2-anticipazioni-episodi-trama-dove-vederlo-quando-inizia/</v>
+      </c>
+      <c r="C65" t="str">
+        <v>di Tiziana Cialdea</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>La passione per la musica, l'attivismo al centro sociale Rivolta: chi era Giacomo Gobbato</v>
+        <v>Superluna del Castoro, l'ultima del 2024: come e quando vederla, e perché si chiama così</v>
       </c>
       <c r="B66" t="str">
-        <v>https://corrieredelveneto.corriere.it/notizie/venezia-mestre/cronaca/24_settembre_21/giacomo-gobbato-chi-era-il-giovane-morto-accoltellato-a-mestre-i-tatuaggi-la-passione-per-la-musica-l-attivismo-al-rivolta-c3e2fe0b-18b7-4a1e-86b7-e088e852fxlk.shtml</v>
+        <v>https://www.corriere.it/tecnologia/24_novembre_13/superluna-del-castoro-del-15-novembre-l-ultima-del-2024-come-vederla-e-perche-si-chiama-cosi-3e19ec6a-62c2-438c-b5d2-4fc52b84cxlk.shtml</v>
+      </c>
+      <c r="C66" t="str">
+        <v>di Alessandro Vinci</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>La crisi della sanità: «Io, centralinista del Cup, vi racconto perché non c’è mai posto per le visite»</v>
+        <v>Ogni quanto (e come) lavare i jeans: la guida per farli tornare come nuovi, con qualche trucco</v>
       </c>
       <c r="B67" t="str">
-        <v>https://torino.corriere.it/notizie/salute/24_settembre_20/torino-e-la-crisi-della-sanita-io-centralinista-del-cup-vi-racconto-perche-non-c-e-mai-posto-per-le-visite-7f15da0b-c1ae-4893-96c8-cfefa4177xlk.shtml</v>
+        <v>https://www.corriere.it/offerte-recensioni/guide/24_novembre_08/jeans-come-quando-lavarli-cc1615f7-6899-44de-b6d5-d50cbd1dexlk.shtml</v>
+      </c>
+      <c r="C67" t="str">
+        <v>di Giacomo Cadeddu</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Otto domande (e risposte) per prepararsi alle elezioni americane</v>
+        <v>Casadei &amp; Co., nel «regno del liscio» identità e passioni della Romagna</v>
       </c>
       <c r="B68" t="str">
-        <v>https://www.corriere.it/oriente-occidente-federico-rampini/24_settembre_21/trump-harris-elezioni-america-dibattito-a3cd27b1-0ada-4eda-a229-18fc59119xlk.shtml</v>
+        <v>https://www.corriere.it/bello-italia/notizie/casadei-co-regno-liscio-identita-passioni-romagna-d2d8342e-a114-11ef-8ca7-0fba9a89fa4d.shtml</v>
+      </c>
+      <c r="C68" t="str">
+        <v>di Federica Manzitti</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Memoria dello smartphone piena dopo le vacanze? Come far spazio senza perdere foto e video (e gratis)</v>
+        <v>Ultima estrazione del Lotto, SuperEnalotto e 10eLotto serale</v>
       </c>
       <c r="B69" t="str">
-        <v>https://www.corriere.it/tecnologia/cards/memoria-dello-smartphone-piena-dopo-le-vacanze-ecco-come-liberarla-senza-perdere-foto-e-video/le-memoria-non-e-mai-abbastanza-specie-in-vacanza_principale.shtml</v>
+        <v>https://www.corriere.it/lotterie/24_novembre_14/estrazioni-lotto-superenalotto-10elotto-giovedi-14-novembre-2024-796ca73b-36d8-0a05-9a6c-b809cf471b69.shtml</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Crollo di Starmer dopo</v>
+        <v>Leonka, dall'omicidio di Fausto e Iaio alla «difesa» di Salvini, 50 anni di storia del centro sociale di via Watteau</v>
       </c>
       <c r="B70" t="str">
-        <v>https://www.corriere.it/esteri/24_settembre_21/londra-starmer-governo-97b2898d-5e71-4a40-8b20-fcb136d1cxlk.shtml</v>
+        <v>https://milano.corriere.it/notizie/cronaca/24_novembre_15/leoncavallo-dall-omicidio-di-fausto-e-iaio-alla-difesa-di-matteo-salvini-50-anni-di-storia-del-centro-sociale-di-via-watteau-4b126ff5-1f31-4785-9c00-75a8c47c7xlk.shtml</v>
+      </c>
+      <c r="C70" t="str">
+        <v>di Andrea Senesi</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>i primi 80 giorni (disastrosi) di governo: bocciato</v>
+        <v>Librerie, svuotata un'altra vetrina: «Una sconosciuta ha comprato tutti i libri (spendendo 1.300 euro)»</v>
       </c>
       <c r="B71" t="str">
-        <v>https://www.corriere.it/esteri/24_settembre_21/londra-starmer-governo-97b2898d-5e71-4a40-8b20-fcb136d1cxlk.shtml</v>
+        <v>https://milano.corriere.it/notizie/cronaca/24_novembre_14/librerie-svuotata-un-altra-vetrina-una-sconosciuta-ha-comprato-tutti-i-libri-per-donarli-alle-scuole-51a1979a-a4e1-4ee4-a69b-684d199eaxlk.shtml</v>
+      </c>
+      <c r="C71" t="str">
+        <v>di Giovanna Maria Fagnani</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>da un elettore su due</v>
+        <v>Area B, auto in aumento: calano i passeggeri dei bus, car sharing e monopattini</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.corriere.it/esteri/24_settembre_21/londra-starmer-governo-97b2898d-5e71-4a40-8b20-fcb136d1cxlk.shtml</v>
+        <v>https://milano.corriere.it/notizie/cronaca/24_novembre_15/milano-aumentano-le-auto-in-area-b-calano-i-passeggeri-dei-bus-car-sharing-e-monopattini-2842a1f3-9db2-4c01-8ab9-ea652e82dxlk.shtml</v>
+      </c>
+      <c r="C72" t="str">
+        <v>di Chiara Evangelista</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>«La Lettura» in edicola canta l'Inno d'Italia e ospita Tracy Chevalier</v>
+        <v>Chiude il Caffè Verdi, bar «della Scala»: contratto non rinnovato. «Bolle, Pavarotti e Muti erano di casa qui»</v>
       </c>
       <c r="B73" t="str">
-        <v>https://www.corriere.it/la-lettura/24_settembre_20/lettura-canta-l-inno-d-italia-ospita-tracy-chevalier-oggi-anteprima-nell-app-44e76242-7771-11ef-8432-f7c84cd0e473.shtml</v>
+        <v>https://milano.corriere.it/notizie/cronaca/24_novembre_15/milano-chiude-il-caffe-verdi-bar-della-scala-contratto-non-rinnovato-bolle-pavarotti-e-muti-erano-di-casa-qui-aaa4f207-a6b7-4aa3-a6d5-21c9a8ac2xlk.shtml</v>
+      </c>
+      <c r="C73" t="str">
+        <v>di Carlo d'Elia</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>«Ho 16 anni, vorrei vivere senza angosciarmi»</v>
+        <v>Tangenti, le ditte indagate hanno appalti anche in tribunale e negli aeroporti</v>
       </c>
       <c r="B74" t="str">
-        <v>https://www.corriere.it/lodicoalcorriere/24_settembre_22/ho-16-anni-vorrei-vivere-senza-angosciarmi-rd-fca610e4-618a-48ca-850a-e67425c0exlk.shtml</v>
+        <v>https://roma.corriere.it/notizie/cronaca/24_novembre_15/tangenti-le-ditte-indagate-hanno-appalti-anche-in-tribunale-e-negli-aeroporti-0b856739-a997-4b8c-adcd-ec828590axlk.shtml</v>
+      </c>
+      <c r="C74" t="str">
+        <v>di Fulvio Fiano, Ilaria Sacchettoni</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>L’abnorme e l’ovvio: «Radio Italians», Beppe Severgnini risponde ai vostri messaggi vocali</v>
+        <v>Vigile investito, Daniele lascia la terapia intensiva. «Comincia la riabilitazione ortopedica»</v>
       </c>
       <c r="B75" t="str">
-        <v>https://www.corriere.it/podcast/severgnini-radioitalians/24_settembre_21/abnorme-l-ovvio-radio-italians-beppe-severgnini-risponde-vostri-messaggi-vocali-3243551e-776d-11ef-8432-f7c84cd0e473.shtml</v>
+        <v>https://roma.corriere.it/notizie/cronaca/24_novembre_15/vigile-urbano-investito-daniele-virgili-lascia-la-terapia-intensiva-comincia-la-riabilitazione-ortopedica-76c87a00-da3c-47fe-91e8-105935739xlk.shtml</v>
+      </c>
+      <c r="C75" t="str">
+        <v>di Rinaldo Frignani</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Paola Marella, quattro giorni fa l'ultimo video sui social</v>
+        <v>Il collega la perseguita dopo la fine della relazione: ma l’azienda licenzia lei</v>
       </c>
       <c r="B76" t="str">
-        <v>https://video.corriere.it/moda/paola-marella-e-morta-l-ultimo-video-sui-social-quattro-giorni-fa/7b5c53a3-9d87-4fea-90dc-307cbf025xlk</v>
+        <v>https://roma.corriere.it/notizie/cronaca/24_novembre_15/revenge-porn-il-collega-la-perseguita-dopo-la-fine-della-relazione-ma-l-azienda-licenzia-lei-d969f263-210f-44c8-a698-9c7e0bb5bxlk.shtml</v>
+      </c>
+      <c r="C76" t="str">
+        <v>di Giulio De Santis</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>I mezzi al lavoro, poi il crollo: il momento in cui collassa un ponte sulla diramazione Roma sud</v>
+        <v>Neve e termometro sotto zero a Campo Imperatore, sul Terminillo e sulle cime più alte di Lazio e Abruzzo</v>
       </c>
       <c r="B77" t="str">
-        <v>https://video.corriere.it/roma/torrenova-crolla-ponte-sulla-diramazione-roma-sud-della-a1-milano-napoli-durante-i-lavori-di-demolizione/ad476769-94c6-4cf5-a876-26b1d2ea0xlk</v>
+        <v>https://video.corriere.it/roma/maltempo-e-gelo-prima-neve-a-campo-imperatore-e-termometro-a-2-gradi/a0c8fc72-5f89-4a47-9f9c-a672eed5cxlk</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v/>
+        <v>Ladro ferito dalla polizia dopo un furto ottiene 480 mila euro di indennizzo. «Ma dopo 6 anni ancora non mi sono stati versati»</v>
       </c>
       <c r="B78" t="str">
-        <v>https://www.corriere.it/opinioni/24_settembre_21/l-ambiente-e-i-costi-dei-ritardi-d542b6da-8fbb-4b35-b3c3-741335640xlk.shtml</v>
+        <v>https://torino.corriere.it/notizie/cronaca/24_novembre_15/torino-dopo-un-furto-scappa-e-viene-ferito-dalla-polizia-dopo-11-anni-chiede-un-indennizzo-di-480-mila-euro-bc7f51e8-f44d-486b-9949-93e5d9bc6xlk.shtml</v>
+      </c>
+      <c r="C78" t="str">
+        <v>di Simona Lorenzetti</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>L'ambiente e i costi dei ritardi</v>
+        <v>Ecco le migliori pasticcerie di Torino e del Piemonte. Alessandro Dalmasso di Avigliana è il «miglior pasticcere d’Italia»</v>
       </c>
       <c r="B79" t="str">
-        <v>https://www.corriere.it/opinioni/24_settembre_21/l-ambiente-e-i-costi-dei-ritardi-d542b6da-8fbb-4b35-b3c3-741335640xlk.shtml</v>
+        <v>https://torino.corriere.it/notizie/cronaca/24_novembre_14/le-migliori-pasticcerie-di-torino-e-del-piemonte-alessandro-dalmasso-di-avigliana-e-il-miglior-pasticcere-d-italia-e87bdc7a-28ba-417f-8a2f-e9dbf8f6cxlk.shtml</v>
+      </c>
+      <c r="C79" t="str">
+        <v>di Rosalba Graglia e Piera Genta</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v/>
+        <v>Sulla pista d'allenamento col passeggino, multata la campionessa di pentathlon Alice Sotero: «Questa è la vita da mamma atleta»</v>
       </c>
       <c r="B80" t="str">
-        <v>https://www.corriere.it/opinioni/24_settembre_21/non-distrarsi-non-arrendersi-e9325dc0-da85-453f-b4e5-33d76a292xlk.shtml</v>
+        <v>https://torino.corriere.it/notizie/sport/24_novembre_14/sulla-pista-d-atletica-col-passeggino-multata-la-campionessa-olimpica-alice-sotero-questa-e-la-vita-da-mamma-1020ec75-80d4-4492-8330-572086ec4xlk.shtml</v>
+      </c>
+      <c r="C80" t="str">
+        <v>di Floriana Rullo</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Non distrarsi, non arrendersi</v>
+        <v>In Piemonte sta scomparendo l'infanzia: è la regione con il maggior numero di Comuni senza bambini sotto i 3 anni</v>
       </c>
       <c r="B81" t="str">
-        <v>https://www.corriere.it/opinioni/24_settembre_21/non-distrarsi-non-arrendersi-e9325dc0-da85-453f-b4e5-33d76a292xlk.shtml</v>
+        <v>https://torino.corriere.it/notizie/cronaca/24_novembre_14/in-piemonte-sta-scomparendo-l-infanzia-e-la-regione-con-il-maggior-numero-di-comuni-senza-bambini-sotto-i-3-anni-753e7de1-c8c6-40af-85c1-6a43eae96xlk.shtml</v>
+      </c>
+      <c r="C81" t="str">
+        <v>di Redazione online</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v/>
+        <v>Matt, Pete, Tulsi (operazione vendetta) e il corallo</v>
       </c>
       <c r="B82" t="str">
-        <v>https://www.corriere.it/opinioni/24_settembre_21/sanita-rabbia-emergenze-e-occasioni-non-sfruttate-b66b0919-ab26-4726-8a9e-2a4dccf5bxlk.shtml</v>
+        <v>https://www.corriere.it/il-punto/america-cina/24_novembre_14/matt-pete-tulsi-operazione-vendetta.shtml</v>
+      </c>
+      <c r="C82" t="str">
+        <v>a cura di Michele Farina</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Sanità, rabbia, emergenze e occasioni non sfruttate</v>
+        <v>LiveTrump nominerà presto inviato per la pace in Ucraina. Lavrov: il ritorno di Trump non cambierà atteggiamento Usa</v>
       </c>
       <c r="B83" t="str">
-        <v>https://www.corriere.it/opinioni/24_settembre_21/sanita-rabbia-emergenze-e-occasioni-non-sfruttate-b66b0919-ab26-4726-8a9e-2a4dccf5bxlk.shtml</v>
+        <v>https://www.corriere.it/esteri/diretta-live/24_novembre_14/ucraina-russia-in-guerra-le-notizie-di-oggi-in-diretta-fox-trump-nominera-presto-inviato-per-la-pace-in-ucraina-lavrov-il-ritorno-di-trump-non-cambiera-atteggiamento-usa.shtml</v>
+      </c>
+      <c r="C83" t="str">
+        <v>di Redazione Online</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Farinetti: «Mia moglie mi salvò dai debiti con lo stipendio da supplente. Non entro mai in nessun negozio»</v>
+        <v>Il dissidente Sanjari si toglie la vita per protesta dopo l'annuncio su X: «Liberate i prigionieri politici o mi suicido»</v>
       </c>
       <c r="B84" t="str">
-        <v>https://www.corriere.it/cronache/24_settembre_21/oscar-farinetti-intervista-e9af4d3e-be87-493b-bb73-8c5567a81xlk.shtml</v>
+        <v>https://www.corriere.it/esteri/24_novembre_13/iran-l-annuncio-su-x-liberate-i-prigionieri-politici-o-mi-suicido-giornalista-e-dissidente-iraniano-si-toglie-la-vita-8a954f8b-c059-424f-9a40-e11280a0dxlk.shtml</v>
+      </c>
+      <c r="C84" t="str">
+        <v>di Greta Privitera</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Ornella Vanoni compie 90 anni: la storia finita con Strehler per la coca, il marito che non amava, quando posò nuda per Playboy</v>
+        <v>La principessa Kate invita al suo Concerto di Natale: «Per riflettere sul senso dell'amore».</v>
       </c>
       <c r="B85" t="str">
-        <v>https://www.corriere.it/spettacoli/cards/ornella-vanoni-compie-90-anni-la-storia-finita-con-strehler-per-la-coca-il-marito-che-non-amava-quando-poso-nuda-per-playboy/90-candeline-nbsp_principale.shtml</v>
+        <v>https://www.corriere.it/esteri/24_novembre_13/la-principessa-kate-manda-gli-inviti-al-concerto-di-natale-momento-per-riflettere-sul-senso-dell-amore-windsor-riuniti-il-6-dicembre-a-westminster-71cd8f88-d75f-4fef-bd72-b86321e5axlk.shtml</v>
+      </c>
+      <c r="C85" t="str">
+        <v>di Enrica Roddolo</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Gino Paoli: «Il sesso senza sensi di colpa me l'ha insegnato Ornella Vanoni. Tentai di uccidermi a 29 anni solo perché ero uno stupido»</v>
+        <v>Perde 50 kg e il marito inizia a picchiarla, la figlia lo infilza con una forchetta</v>
       </c>
       <c r="B86" t="str">
-        <v>https://www.corriere.it/sette/incontri/24_settembre_21/gino-paoli-intervista-suicidio-amore-6ed84015-c9ce-4b72-ad98-fc7bb62a1xlk.shtml</v>
+        <v>https://salerno.corriere.it/notizie/cronaca/24_novembre_14/salerno-dimagrisce-di-50-kg-e-il-marito-geloso-inizia-a-picchiarla-la-figlia-di-10-anni-per-difenderla-infilza-la-mano-del-padre-con-una-forchetta-8b8ed10d-2da3-4792-b616-ff5d9bf79xlk.shtml</v>
+      </c>
+      <c r="C86" t="str">
+        <v>di Ersilia Gillio</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Gp Singapore, Norris dalla pole, sfida per il titolo con Verstappen. Le Ferrari devono risalire: orari, dove vederlo in tv</v>
+        <v>Giudice nega legittimo impedimento ad avvocata incinta di 8 mesi</v>
       </c>
       <c r="B87" t="str">
-        <v>https://www.corriere.it/sport/formula-1/24_settembre_20/f1-gp-singapore-dove-vedere-tv-35607e36-e2c6-43c4-b57b-2682ca1eaxlk.shtml</v>
+        <v>https://corrieredelveneto.corriere.it/notizie/venezia-mestre/cronaca/24_novembre_13/venezia-giudice-nega-legittimo-impedimento-ad-avvocata-incinta-di-8-mesi-86f20444-6cce-4684-a90c-ff5f6c47fxlk.shtml</v>
+      </c>
+      <c r="C87" t="str">
+        <v>di Redazione Online</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Ferrari disastro: errori dei piloti o del team?</v>
+        <v>Valter, il corriere Amazon: 150 pacchi al giorno in sei ore: «Non li portavo tutti, mi hanno licenziato»</v>
       </c>
       <c r="B88" t="str">
-        <v>https://www.corriere.it/sport/formula-1/24_settembre_22/ferrari-disastro-qualifiche-gp-singapore-colpa-piloti-team-754b61b2-1480-4ded-a766-84fed5720xlk.shtml</v>
+        <v>https://corrierefiorentino.corriere.it/notizie/cronaca/24_novembre_13/valter-il-corriere-amazon-150-pacchi-al-giorno-in-sei-ore-licenziato-perche-non-riusciva-a-portarli-tutti-3cbc322e-dfac-47cf-a8f9-b9fe115c2xlk.shtml</v>
+      </c>
+      <c r="C88" t="str">
+        <v>di Jacopo Storni</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Leclerc sgrida la Ferrari: «Le gomme erano troppo fredde»</v>
+        <v>La  «Silvia» nella serie sugli 883: «Potevo perdere il provino per un'email»</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.corriere.it/sport/formula-1/24_settembre_21/leclerc-ferrari-gomme-polemica-qualifiche-gp-singapore-c0311809-acea-4867-b29b-59081a7d5xlk.shtml</v>
+        <v>https://corrieredibologna.corriere.it/notizie/cronaca/24_novembre_13/ludovica-barbarito-silvia-nella-serie-sugli-883-non-ho-vissuto-gli-anni-90-ma-i-miei-genitori-mi-ripetono-che-erano-bellissimi-4240507a-ed94-430b-ad67-c279085b4xlk.shtml</v>
+      </c>
+      <c r="C89" t="str">
+        <v>di Vittoria Melchioni</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Gp Singapore, i risultati delle qualifiche: Norris imprendibile, Max risorto</v>
+        <v>La blogger Giulia Meta: «Molestata in pieno giorno, nessuno si è fermato»</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.corriere.it/sport/formula-1/diretta-live/24_settembre_21/f1-gp-singapore-prove-libere-qualifiche-diretta.shtml</v>
+        <v>https://bergamo.corriere.it/notizie/cronaca/24_novembre_14/la-blogger-giulia-meta-io-molestata-a-bergamo-in-pieno-giorno-nessuno-si-e-fermato-109ef19a-cc49-48fa-af77-d69fcd63cxlk.shtml</v>
+      </c>
+      <c r="C90" t="str">
+        <v>di Federico Rota</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Mazzanti (Antico Vinaio): «Lavoro da quando avevo 16 anni, ho 600 dipendenti e li trovo pagandoli il giusto»</v>
+        <v>Insulti sessisti dagli spalti a una giocatrice del Brescia in trasferta ad Avellino per il torneo di Serie B</v>
       </c>
       <c r="B91" t="str">
-        <v>https://corrieredibologna.corriere.it/notizie/cronaca/24_settembre_21/all-antico-vinaio-anche-bologna-fa-la-fila-per-la-schiacciata-dei-record-per-voi-con-la-mortadella-171f2e11-e874-4287-b9e8-4eec53c77xlk.shtml</v>
+        <v>https://brescia.corriere.it/notizie/sport/24_novembre_14/insulti-sessisti-dagli-spalti-a-una-giocatrice-del-brescia-femminile-in-trasferta-ad-avellino-per-il-torneo-di-serie-b-728a4fc6-1852-4720-8c57-ca0881485xlk.shtml</v>
+      </c>
+      <c r="C91" t="str">
+        <v>di Luca Goffi</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Tú sí que vales, le pagelle: Ferilli ipocondriaca (voto 8), Littizzetto si distrae al telefono (voto 4)</v>
+        <v>Vittorio Lingiardi: «La scrittura mi ha aiutato a stare nel dolore»</v>
       </c>
       <c r="B92" t="str">
-        <v>https://www.corriere.it/spettacoli/24_settembre_22/tu-si-que-vales-le-pagelle-ferilli-ipocondriaca-voto-8-littizzetto-si-distrae-al-telefono-voto-4-eaac66ab-4592-4746-ad54-e58499f40xlk.shtml</v>
+        <v>https://www.corriere.it/sette/24_novembre_14/vittorio-lingiardi-la-scrittura-mi-ha-aiutato-a-stare-nel-dolore-6abe9c21-0d00-4d45-96de-6039d6369xlk.shtml</v>
+      </c>
+      <c r="C92" t="str">
+        <v>di Jonathan Bazzi</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Chi può batterci?, le pagelle: Liorni si mette in gioco (voto 8), Del Bufalo eternamente spaesata (voto 4)</v>
+        <v>Michele Mariotti: «Aprire i teatri ai giovani e renderli più curiosi. Chiuderli significa negare il futuro»</v>
       </c>
       <c r="B93" t="str">
-        <v>https://www.corriere.it/spettacoli/24_settembre_22/chi-puo-batterci-le-pagelle-liorni-si-mette-in-gioco-voto-8-del-bufalo-eternamente-spaesata-voto-4-36996409-a3dc-45c9-bb30-f5746c4ffxlk.shtml</v>
+        <v>https://www.corriere.it/sette/24_novembre_13/michele-mariotti-bisogna-aprire-i-teatri-ai-giovani-per-renderli-sempre-piu-curiosi-non-chiuderli-significa-non-guardare-al-futuro-fb97c198-198c-490c-ab21-4a8a19747xlk.shtml</v>
+      </c>
+      <c r="C93" t="str">
+        <v>di Gian Luca Bauzano</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Addio allo sport, la scelta di Caterina Banchelli: «Con lo stipendio da pallanuotista non ci pago l'affitto»</v>
+        <v>Cyberbullismo, la madre di Andrea dai “pantaloni rosa”: «Il film aiuterà altri»</v>
       </c>
       <c r="B94" t="str">
-        <v>https://corrierefiorentino.corriere.it/notizie/sport/24_settembre_22/addio-allo-sport-la-scelta-di-caterina-banchelli-con-lo-stipendio-da-pallanuotista-non-ci-pago-l-affitto-bf4e256c-b4e2-4860-b5e3-8b153267fxlk.shtml</v>
+        <v>https://www.corriere.it/sette/24_novembre_12/cyberbullismo-la-madre-di-andrea-dai-pantaloni-rosa-il-film-aiutera-altri-a4a277bc-11a6-4ede-9c63-8b34e9ebaxlk.shtml</v>
+      </c>
+      <c r="C94" t="str">
+        <v>di Giusi Fasano</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Retropassaggio di Olivera raccolto con le mani in Juventus-Napoli: proteste dei bianconeri, cos'è successo</v>
+        <v>Giuseppe Antonelli:</v>
       </c>
       <c r="B95" t="str">
-        <v>https://www.corriere.it/sport/calcio/serie-a/24_settembre_21/retropassaggio-olivera-juventus-napoli-proteste-cos-e-successo-518a258e-2e01-424d-b69d-2123ad594xlk.shtml</v>
+        <v>https://video.corriere.it/sette/festivaldellagentilezza/giuseppe-antonelli-gentilezza-e-una-parola-/14fc9c35-9e7e-47c1-93a3-e0ee8e577xlk</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Conte e il ritorno allo Stadium: qualche fischio, applausi e gli occhi lucidi</v>
+        <v>Cillian Murphy: «Il mio eroe qualunque»</v>
       </c>
       <c r="B96" t="str">
-        <v>https://www.corriere.it/sport/calcio/24_settembre_21/conte-juventus-napoli-stadium-tifosi-c275f348-2108-4fee-a55a-da2991b36xlk.shtml</v>
+        <v>https://www.corriere.it/spettacoli/cinema-serie-tv/24_novembre_14/cillian-murphy-il-mio-eroe-qualunque-53751452-6dfc-4f12-be56-d7222c580xlk.shtml</v>
+      </c>
+      <c r="C96" t="str">
+        <v>di Stefania Ulivi</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Tacconi alla partita in carrozzina</v>
+        <v>Caroline Pagani: rendo omaggio a mio fratello Herbert</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.corriere.it/sport/calcio/serie-a/24_settembre_21/tacconi-szczesny-stadium-juventus-napoli-d0e52bf4-dc3e-46fb-9105-b0da44a8axlk.shtml</v>
+        <v>https://www.corriere.it/spettacoli/24_novembre_14/caroline-pagani-rendo-omaggio-a-mio-fratello-herbert-302c9da8-b758-4a27-90d5-c99d3ff43xlk.shtml</v>
+      </c>
+      <c r="C97" t="str">
+        <v>di Giovanna Maria Fagnani</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>LE PAGELLE</v>
+        <v>Vittorio De Sica, non c’è alcuna formula per creare opere d’arte</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.corriere.it/sport/calcio/serie-a/cards/pagelle-juventus-napoli-21-settembre-2024/pagelle-juventus-napoli_principale.shtml</v>
+        <v>https://www.corriere.it/spettacoli/24_novembre_14/vittorio-de-sica-non-c-e-alcuna-formula-per-creare-opere-d-arte-c8b289a0-f4b9-41df-aa7a-b95fac87cxlk.shtml</v>
+      </c>
+      <c r="C98" t="str">
+        <v>di Aldo Grasso</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Yildiz ambizioso (5), Vlahovic vaga (5), Kvara a sprazzi (5,5), Lukaku timido (5</v>
+        <v>Kekko dei Modà: «Dopo la depressione (e qualche delusione), il riscatto: ora torno a San Siro»</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.corriere.it/sport/calcio/serie-a/cards/pagelle-juventus-napoli-21-settembre-2024/pagelle-juventus-napoli_principale.shtml</v>
+        <v>https://www.corriere.it/spettacoli/24_novembre_14/kekko-dei-moda-ho-avuto-la-depressione-ma-ora-torno-a-san-siro-4415cb26-9b60-4746-9aa4-a952d72fcxlk.shtml</v>
+      </c>
+      <c r="C99" t="str">
+        <v>di Giovanna Maria Fagnani</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Vlahovic bocciato dopo 45'</v>
+        <v>L'incontro «del secolo» Tyson-Paul. Iron Mike torna sul ring a 58 anni: dove vederlo (di notte) in tv</v>
       </c>
       <c r="B100" t="str">
-        <v>https://www.corriere.it/sport/calcio/serie-a/24_settembre_21/juventus-napoli-risultato-0-0-cb7db942-90aa-4cfd-bb32-944e7b196xlk.shtml</v>
+        <v>https://www.corriere.it/sport/24_novembre_15/tyson-paul-dove-vedere-incontro-tv-streaming-91101d61-4b73-404d-a33d-2f1f5e19exlk.shtml</v>
+      </c>
+      <c r="C100" t="str">
+        <v>di Salvatore Riggio</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Bagnaia vince la Sprint su Martin, è a -4 in classifica.</v>
+        <v>Sinner vale già Federer, Nadal e Djokovic: gli altri ci provano lui ce la fa. Ecco come penso cambierà ancora il suo tennis</v>
       </c>
       <c r="B101" t="str">
-        <v>https://www.corriere.it/sport/motomondiale/diretta-live/24_settembre_21/motogp-emilia-romagna-qualifiche-sprint-race-risultati.shtml</v>
+        <v>https://www.corriere.it/sport/tennis/24_novembre_14/panatta-sinner-atp-finals-commento-5490a357-f719-4542-a396-7a71c59ffxlk.shtml</v>
+      </c>
+      <c r="C101" t="str">
+        <v>di Adriano Panatta</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Gli avversari: «Non li teniamo»</v>
+        <v>Serena Williams, le diete e il rapporto con il proprio corpo: «Sono stanca di bugie, non salirò più sulla bilancia»</v>
       </c>
       <c r="B102" t="str">
-        <v>https://www.corriere.it/sport/motomondiale/diretta-live/24_settembre_21/motogp-emilia-romagna-qualifiche-sprint-race-risultati.shtml</v>
+        <v>https://www.corriere.it/sport/tennis/24_novembre_14/serena-williams-dieta-fitness-bilancia-ab58a3dd-e658-49d7-bfb5-917a11a7axlk.shtml</v>
+      </c>
+      <c r="C102" t="str">
+        <v>di Francesco Sessa</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Dove e a che ora vedere la gara di Misano in tv e streaming</v>
+        <v>Ranieri, ecco chi sono i giocatori da recuperare subito. Poi sceglierà l'allenatore del futuro</v>
       </c>
       <c r="B103" t="str">
-        <v>https://www.corriere.it/sport/motomondiale/24_settembre_20/motogp-emilia-romagna-dove-vedere-tv-orari-10eb2050-f2ea-4317-8fbd-71ec3850bxlk.shtml</v>
+        <v>https://www.corriere.it/sport/calcio/serie-a/24_novembre_15/ranieri-roma-chi-giocatori-recuperare-allenatore-1869838b-6e0c-4c9a-96ef-e22c3b809xlk.shtml</v>
+      </c>
+      <c r="C103" t="str">
+        <v>di Luca Valdiserri</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Marc Marquez a Rossi: «Non permetterò a nessuno di distrarmi»</v>
+        <v>Comodissimi! Ecco gli stivaletti che si abbinano con tutto Inverno 2024</v>
       </c>
       <c r="B104" t="str">
-        <v>https://www.corriere.it/sport/motomondiale/24_settembre_19/marquez-valentino-rossi-risposta-gp-misano-ad3289f0-6c66-4fc3-b8a6-258c0591bxlk.shtml</v>
+        <v>https://www.iodonna.it/moda/tendenze/2024/11/14/stivaletti-stringati-donna-eleganti-suede-beige-autunno-2024/?intcmp=iod_hpcor_articolo</v>
+      </c>
+      <c r="C104" t="str">
+        <v>di Barbara Rossetti</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Le gambe più belle non si vedono in passerella, sono in giro per Milano. Ma la moda non era cambiata?</v>
+        <v>Wispy bang: la frangia a “ciuffetti” che piace a Taylor Swift e Camila Cabello</v>
       </c>
       <c r="B105" t="str">
-        <v>https://milano.corriere.it/notizie/cronaca/24_settembre_22/le-gambe-piu-belle-non-si-vedono-in-passerella-ma-in-giro-per-milano-e-ricordano-quelle-di-silvana-mangano-in-riso-amaro-ac91d243-5ae0-4b65-b4a7-a3517926dxlk.shtml</v>
+        <v>https://www.iodonna.it/bellezza/capelli/2024/11/12/frangia-wispy-tendenza-frangia-leggera-aperta-ciuffi-come-taylor-swift/?intcmp=iod_hpcor_articolo</v>
+      </c>
+      <c r="C105" t="str">
+        <v>di Malvina Berti</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Roma contestata, l’ad Souloukou finisce sotto scorta. Juric debutta senza i Friedkin e senza i tifosi</v>
+        <v>Zucca, le proprietà sorprendenti dell’ortaggio amico di chi ha il diabete</v>
       </c>
       <c r="B106" t="str">
-        <v>https://www.corriere.it/sport/calcio/serie-a/24_settembre_22/roma-contestazione-tifosi-de-rossi-juric-friedkin-be54d0d8-a9cc-4649-a659-926557ab8xlk.shtml</v>
+        <v>https://www.iodonna.it/benessere/diete-alimentazione/2024/11/13/zucca-le-proprieta-sorprendenti-dellortaggio-amico-di-chi-ha-il-diabete/?intcmp=iod_hpcor_articolo</v>
+      </c>
+      <c r="C106" t="str">
+        <v>di Angelica Amodei</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>L'italiano in pochi mesi, il volley, le lauree: chi è Lina Souloukou, che ha fatto licenziare De Rossi</v>
+        <v>Che giornata si prospetta per lei e per lui? La pagella dell’umore per</v>
       </c>
       <c r="B107" t="str">
-        <v>https://www.corriere.it/sport/calcio/serie-a/24_settembre_20/lina-souloukou-chi-e-ceo-roma-licenziamento-de-rossi-bf5d8711-942b-4fa3-92fc-3af8324b0xlk.shtml</v>
+        <v>https://www.iodonna.it/oroscopo/oggi/?intcmp=iod_hpcor_articolo</v>
+      </c>
+      <c r="C107" t="str">
+        <v>di Laura Tuan</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>L'uomo più forte del mondo: «Mangiavo 12 mila calorie al giorno, come cinque uomini. Rischiavo di morire d'infarto»</v>
+        <v>Siamo nell'Era del bitcoin? Guida alle criptovalute: cosa sono, come si comprano,  quanto arriveranno a valere</v>
       </c>
       <c r="B108" t="str">
-        <v>https://www.corriere.it/sport/24_settembre_21/eddie-hall-uomo-forte-mondo-12-mila-calorie-5ccf721f-1122-43c3-bdfc-dab1f889dxlk.shtml</v>
+        <v>https://www.corriere.it/tecnologia/cards/guida-ai-bitcoin-e-alle-criptovalute-cosa-sono-come-si-comprano/effetto-trump-sui-bitcoin_principale.shtml</v>
+      </c>
+      <c r="C108" t="str">
+        <v>di Paolo Ottolina e Michela Rovelli</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>L'oroscopo di</v>
+        <v>L'Antitrust colpisce Meta: multa da 800 milioni di euro in Europa, negli Usa processo per «monopolio social»</v>
       </c>
       <c r="B109" t="str">
-        <v>https://www.corriere.it/oroscopo/oggi-22-09-2024-di-paolo-fox/</v>
+        <v>https://www.corriere.it/tecnologia/24_novembre_14/l-antitrust-colpisce-meta-multa-da-800-milioni-di-euro-in-europa-e-un-nuovo-processo-negli-usa-3f71a28b-83ef-42db-9e4e-2ce7716b6xlk.shtml</v>
+      </c>
+      <c r="C109" t="str">
+        <v>di Michela Rovelli</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Paolo Fox</v>
+        <v>Da Elio e le Storie Tese a Piero Pelù: fuga da X degli account vip: «Il social di Musk è diventato una cloaca»</v>
       </c>
       <c r="B110" t="str">
-        <v>https://www.corriere.it/oroscopo/oggi-22-09-2024-di-paolo-fox/</v>
+        <v>https://www.corriere.it/tecnologia/24_novembre_13/la-fuga-da-x-dei-vip-da-elio-e-le-storie-tese-a-piero-pelu-chi-abbandona-il-social-di-musk-e-diventato-una-cloaca-9b4ef88b-de3e-41f8-ac16-c3b383061xlk.shtml</v>
+      </c>
+      <c r="C110" t="str">
+        <v>di Velia Alvich</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>di oggi: amore, lavoro, benessere e fortuna, segno per segno</v>
+        <v>Lo schermo super-elastico: si piega e si deforma così tanto che può creare tasti fisici in rilievo</v>
       </c>
       <c r="B111" t="str">
-        <v>https://www.corriere.it/oroscopo/oggi-22-09-2024-di-paolo-fox/</v>
+        <v>https://www.corriere.it/tecnologia/24_novembre_13/lg-mostra-il-prototipo-di-schermo-elastico-si-allunga-si-piega-e-puo-assumere-qualsiasi-forma-a2a7370d-810f-409c-b9f7-8fc74637bxlk.shtml</v>
+      </c>
+      <c r="C111" t="str">
+        <v>di Saverio Alloggio</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>A Santo Stefano Belbo, calpestando le orme di Cesare Pavese</v>
+        <v>«75 Kg di felicità»: un fumetto per costruire il primo ospedale per ricci in Europa</v>
       </c>
       <c r="B112" t="str">
-        <v>https://www.corriere.it/bello-italia/notizie/a-santo-stefano-belbo-calpestando-orme-cesare-pavese-b12b79d0-7757-11ef-8432-f7c84cd0e473.shtml</v>
+        <v>https://www.corriere.it/animali/24_novembre_13/75-kg-di-felicita-un-fumetto-per-costruire-il-primo-ospedale-per-ricci-in-europa-edbe940f-9f59-43cc-8114-74296cfa8xlk.shtml</v>
+      </c>
+      <c r="C112" t="str">
+        <v>di Silvia Morosi</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Scatole e grucce coordinate, sacchetti profumati: come fare</v>
+        <v>Morto un cucciolo di panda rosso, i veterinari dello zoo: "A ucciderlo lo spavento legato ai fuochi d'artificio"</v>
       </c>
       <c r="B113" t="str">
-        <v>https://www.corriere.it/offerte-recensioni/moda/abbigliamento-accessori/24_settembre_21/cambio-di-stagione-gli-essenziali-da-avere-nell-armadio-per-semplificarci-la-vita-fb7810a7-e280-4125-8a53-e722307b1xlk.shtml</v>
+        <v>https://www.corriere.it/animali/24_novembre_14/morto-un-cucciolo-di-panda-rosso-allo-zoo-di-edimburgo-i-veterinari-a-ucciderlo-lo-spavento-legato-ai-fuochi-d-artificio-esplosi-4ad803e5-7d16-4b07-aca5-3de833020xlk.shtml</v>
+      </c>
+      <c r="C113" t="str">
+        <v>di Silvia Morosi</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>il cambio stagione dell'armadio</v>
+        <v>Spazi ristretti e animali feriti: i conigli in gabbia si allevano così. «Ora si cambi e l'Ue rispetti gli impegni»</v>
       </c>
       <c r="B114" t="str">
-        <v>https://www.corriere.it/offerte-recensioni/moda/abbigliamento-accessori/24_settembre_21/cambio-di-stagione-gli-essenziali-da-avere-nell-armadio-per-semplificarci-la-vita-fb7810a7-e280-4125-8a53-e722307b1xlk.shtml</v>
+        <v>https://www.corriere.it/animali/24_novembre_10/conigli-in-gabbia-la-videodenuncia-delle-associazioni-spazi-ristretti-ferite-e-trattamento-inadeguato-la-ue-rispetti-gli-impegni-b3630d71-df7e-4771-a8db-63f61d3dbxlk.shtml</v>
+      </c>
+      <c r="C114" t="str">
+        <v>di Alessandro Sala</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Equinozio d'autunno, perché quest'anno non è stato il 21 settembre</v>
+        <v>Un capodoglio spiaggiato sul lungomare di Baku per ricordare le emergenze ambientali</v>
       </c>
       <c r="B115" t="str">
-        <v>https://www.corriere.it/tecnologia/24_settembre_21/equinozio-autunno-2024-2799ac12-1189-4655-bf0a-ddeb4e1d0xlk.shtml</v>
+        <v>https://video.corriere.it/animali/un-capodoglio-spiaggiato-sul-lungomare-di-baku-per-ricordare-le-emergenze-ambientali/2e164fc1-5f4b-41bf-bba8-384011edaxlk</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Ultima estrazione del Lotto, SuperEnalotto e 10eLotto serale</v>
+        <v>Uno speaker bluetooth che resiste a colpi e cadute: la prova del nuovo modello Bose</v>
       </c>
       <c r="B116" t="str">
-        <v>https://www.corriere.it/lotterie/24_settembre_21/estrazioni-lotto-superenalotto-10elotto-sabato-21-settembre-2024-7de5a4b9-513b-674b-5ec1-e589157c1ee4.shtml</v>
+        <v>https://www.corriere.it/offerte-recensioni/offerte/black-friday/24_novembre_14/bose-soundlink-flex-2-in-prova-lo-speaker-bluetooth-che-resiste-a-colpi-e-cadute-e-suona-benissimo-8babb316-efb2-4172-bdd8-c5de3a0d6xlk.shtml</v>
+      </c>
+      <c r="C116" t="str">
+        <v>di Saverio Alloggio</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Via Zuretti, la notte delle spranghe e la bambina venduta: i fantasmi neri della cronaca vicino alla Centrale</v>
+        <v>La prova del nuovo iMac M4: Apple Intelligence (in inglese) e schermo ammazza-riflessi</v>
       </c>
       <c r="B117" t="str">
-        <v>https://milano.corriere.it/notizie/cronaca/24_settembre_22/via-zuretti-a-milano-la-notte-delle-spranghe-e-la-bambina-venduta-i-fantasmi-neri-della-cronaca-vicino-alla-centrale-43544689-7441-40b1-a73e-380d344f4xlk.shtml</v>
+        <v>https://www.corriere.it/offerte-recensioni/tecnologia/computer/24_novembre_07/imac-m4-2024-la-recensione-stile-colore-e-apple-intelligence-per-difendere-il-trono-degli-all-in-one-ab61836b-c9a7-4cdf-9c08-c594ce6f4xlk.shtml</v>
+      </c>
+      <c r="C117" t="str">
+        <v>di Paolo Ottolina</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Cavalcavia e sottopassi, un piano speciale per oltre 500 strutture: tutti gli interventi programmati fino al 2027</v>
+        <v>Lava, aspira e costa il giusto: abbiamo provato il nuovo robot aspirapolvere Dreame</v>
       </c>
       <c r="B118" t="str">
-        <v>https://milano.corriere.it/notizie/cronaca/24_settembre_22/cavalcavia-e-sottopassi-a-milano-un-piano-speciale-per-oltre-500-strutture-tutti-gli-interventi-programmati-fino-al-2027-7ee1278d-551d-4a6f-ad16-bf1084f23xlk.shtml</v>
+        <v>https://www.corriere.it/offerte-recensioni/offerte/black-friday/24_novembre_12/recensione-dreame-l10s-ultra-gen-2-il-top-al-giusto-prezzo-a759d7b6-58be-4c82-b3f3-1bc7e6540xlk.shtml</v>
+      </c>
+      <c r="C118" t="str">
+        <v>di Vittorio Pipia</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Sul Ponte della Ghisolfa installata la segnaletica «salva-ciclisti» (in attesa della corsia per due ruote)</v>
+        <v>Divano, serie tv e tisana: le migliori da gustare in autunno (e in vista del Natale)</v>
       </c>
       <c r="B119" t="str">
-        <v>https://milano.corriere.it/notizie/cronaca/24_settembre_22/milano-sul-ponte-della-ghisolfa-installata-la-segnaletica-salva-ciclisti-in-attesa-della-corsia-riservata-alle-due-ruote-73b009f0-d228-46ac-945e-9a3f2ea20xlk.shtml</v>
+        <v>https://www.corriere.it/offerte-recensioni/casa/cucina/24_novembre_12/te-e-tisane-biologiche-qualche-consiglio-per-l-autunno-e-in-vista-del-natale-f5cf634e-1b96-492a-9c8e-fd32491b8xlk.shtml</v>
+      </c>
+      <c r="C119" t="str">
+        <v>di Giacomo Cadeddu</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Green week a Milano: piazze aperte e strade chiuse, aree pedonali e «no parking day»</v>
+        <v>Emilia-Romagna, la sfida tra il sindaco che «visse due volte» e la prof ciellina (che tenta il «miracolo»)</v>
       </c>
       <c r="B120" t="str">
-        <v>https://milano.corriere.it/notizie/cronaca/24_settembre_21/green-week-a-milano-piazze-aperte-e-strade-chiuse-aree-pedonali-e-no-parking-day-fc941d2d-3bf9-426d-a88f-2ba34270dxlk.shtml</v>
+        <v>https://www.corriere.it/politica/24_novembre_13/emilia-romagna-la-sfida-tra-il-sindaco-che-visse-due-volte-e-la-prof-ciellina-che-tenta-il-miracolo-9edde4aa-a0ce-48f4-aa8f-dd5400e91xlk.shtml</v>
+      </c>
+      <c r="C120" t="str">
+        <v>di Claudio Bozza</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Flaminio, i residenti di via Cardinal De Luca: «Fermate gli scavi, si rischiano crolli. C’è acqua nel sottosuolo »</v>
+        <v>Dalla pasta (anti caviale) alla cicoria. Tutti i derby della politica in cucina</v>
       </c>
       <c r="B121" t="str">
-        <v>https://roma.corriere.it/notizie/cronaca/24_settembre_21/flaminio-i-residenti-di-via-cardinal-de-luca-fermate-gli-scavi-si-rischiano-crolli-c-e-acqua-nel-sottosuolo-1991cd16-31c1-46be-aad8-2e0f2fa95xlk.shtml</v>
+        <v>https://roma.corriere.it/notizie/politica/24_novembre_12/dalla-pasta-anti-caviale-alla-cicoria-tutti-i-derby-della-politica-in-cucina-f61217f7-83ef-43d5-ac41-582e44174xlk.shtml</v>
+      </c>
+      <c r="C121" t="str">
+        <v>di Tommaso Labate</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Sophia Loren compie 90 anni, ecco la sua «casa» a Palazzo Naiadi: una suite con gli oggetti più amati</v>
+        <v>Stop a compensi dall’estero ai politici, Renzi:</v>
       </c>
       <c r="B122" t="str">
-        <v>https://roma.corriere.it/notizie/cronaca/24_settembre_20/sophia-loren-compie-90-anni-ecco-la-sua-casa-a-palazzo-naiadi-una-suite-con-i-suoi-oggetti-del-cuore-58f8a949-81f4-494d-8120-341169c09xlk.shtml</v>
+        <v>https://roma.corriere.it/notizie/politica/24_novembre_13/stop-a-compensi-dall-estero-ai-politici-renzi-norma-contro-di-me-7b4968e8-c5f0-41c7-aca5-082214da9xlk.shtml</v>
+      </c>
+      <c r="C122" t="str">
+        <v>di Maria Teresa Meli</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Andrea Guastalla morto in scooter: l'attesa dei colleghi e il buco di ore prima del ritrovamento. «Poteva salvarsi»</v>
+        <v>M5S,  i 14 quesiti per la Costituente del partito.</v>
       </c>
       <c r="B123" t="str">
-        <v>https://roma.corriere.it/notizie/cronaca/24_settembre_21/incidenti-stradali-andrea-guastalla-morto-in-scooter-l-attesa-dei-colleghi-e-il-buco-di-ore-prima-del-ritrovamento-poteva-salvarsi-3729397b-642b-41f4-a944-f5a070113xlk.shtml</v>
+        <v>https://www.corriere.it/politica/24_novembre_12/m5s-giovedi-i-14-quesiti-per-la-costituente-del-partito-gli-iscritti-voteranno-dal-21-a-24-novembre-806b4277-ef9e-4f1f-ba92-e328a2f11xlk.shtml</v>
+      </c>
+      <c r="C123" t="str">
+        <v>di Redazione Politica</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Violenza di genere, la campionessa di kick boxing Gloria Peritore negli Usa con il progetto di difesa personale</v>
+        <v>Eva, Pietro e il cane Tumpi</v>
       </c>
       <c r="B124" t="str">
-        <v>https://roma.corriere.it/notizie/cronaca/24_settembre_20/violenza-di-genere-la-campionessa-di-kick-boxing-gloria-peritore-negli-usa-con-il-progetto-di-difesa-personale-70aa18ca-8876-4688-bc15-9208023c1xlk.shtml</v>
+        <v>https://www.corriere.it/buone-notizie/24_novembre_14/eva-pietro-e-il-cane-tumpi-da-cuneo-a-roma-a-piedi-contro-la-violenza-sulle-donne-a16e9658-f289-4fe9-b519-9ff762a50xlk.shtml</v>
+      </c>
+      <c r="C124" t="str">
+        <v>di Paolo Foschini</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Trent'anni fa moriva Gustavo Rol, un mistero alla luce del sole che affascina ancora</v>
+        <v>Open day al «Bluemers», dove i bambini autistici imparano a «sbocciare»</v>
       </c>
       <c r="B125" t="str">
-        <v>https://torino.corriere.it/notizie/cultura/24_settembre_22/trent-anni-fa-moriva-gustavo-rol-un-mistero-alla-luce-del-sole-che-affascina-ancora-8a0d87eb-568b-420e-9678-6c0d31f19xlk.shtml</v>
+        <v>https://www.corriere.it/buone-notizie/24_novembre_14/open-day-al-centro-bluemers-la-casa-dove-sbocciano-i-bimbi-autistici-5062519e-3cb6-48c9-96c3-18ee49462xlk.shtml</v>
+      </c>
+      <c r="C125" t="str">
+        <v>di Rosella Redaelli</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Monte Rosa, due alpinisti salvati nella notte: per ripararsi dal freddo avevano scavato una buca nella neve</v>
+        <v>Il Museo diocesano diffuso</v>
       </c>
       <c r="B126" t="str">
-        <v>https://torino.corriere.it/notizie/cronaca/24_settembre_22/bloccati-sul-monte-rosa-due-alpinisti-sudamericani-salvati-nella-notte-per-ripararsi-dal-freddo-avevano-scavato-una-buca-nella-neve-ea496463-86a7-4f30-929c-fbd135182xlk.shtml</v>
+        <v>https://www.corriere.it/buone-notizie/24_novembre_14/il-museo-diocesano-diffuso-e-casa-bartimeo-per-i-poverinapoli-due-nuovi-progetti-bf486185-8cd9-4307-808d-a629db986xlk.shtml</v>
+      </c>
+      <c r="C126" t="str">
+        <v>di Lorenza Cerbini</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Pietro Botto: «A 21 anni produco il primo spumante senz'alcol del Monferrato». Una bottiglia costa 18 euro</v>
+        <v>Camelie, ninfee e conchiglie nell'Orto Botanico di Pisa tra aiuole e serre tropicali</v>
       </c>
       <c r="B127" t="str">
-        <v>https://torino.corriere.it/notizie/cronaca/24_settembre_21/brindisi-senza-alcol-a-21-anni-produco-la-prima-bollicina-dealcolata-del-monferrato-3cf28c42-d238-4dec-858c-50a0dfc0bxlk.shtml</v>
+        <v>https://www.corriere.it/buone-notizie/cards/camelie-ninfee-e-conchiglie-nell-orto-botanico-di-pisa-amato-da-pablo-neruda/b-gli-alberi-dellorto-botanico-di-pisa-colorano-lautunno-b_principale.shtml</v>
+      </c>
+      <c r="C127" t="str">
+        <v>di Luca Bergamin</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Battaglino: «Un massaggio e Clostebol come per Sinner, ma così è finito il mio tennis. Ora sono un appestato»</v>
+        <v>Angela Frenda racconta Nora Ephron, da moglie tradita a donna realizzata grazie alla cucina.</v>
       </c>
       <c r="B128" t="str">
-        <v>https://torino.corriere.it/notizie/cronaca/24_settembre_21/stefano-battaglino-un-massaggio-e-clostebol-come-per-sinner-ma-cosi-e-finito-il-mio-tennis-e-ora-sono-un-appestato-7a122f09-0156-4292-a198-251537b10xlk.shtml</v>
+        <v>https://www.corriere.it/cook/news/24_novembre_07/angela-frenda-racconta-nora-ephron-moglie-tradita-donna-realizzata-grazie-cucina-incontri-l-autrice-librerie-c2d80926-9c61-11ef-b50d-675fdb5e2612.shtml</v>
+      </c>
+      <c r="C128" t="str">
+        <v>di Benedetta Moro</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Le ferite di Beirut, il raid di Damasco, l'intrigo dei device</v>
+        <v>Da escluso a Masterchef alla stella Michelin, chef Bertone:«“Colpa” e merito di Cannavacciuolo»</v>
       </c>
       <c r="B129" t="str">
-        <v>https://www.corriere.it/america-cina/2024/09/20/ferite-beirut-5a86fd24-772b-11ef-8432-f7c84cd0e473.shtml</v>
+        <v>https://www.corriere.it/cook/news/24_novembre_13/da-escluso-masterchef-stella-michelin-chef-bertonecolpa-merito-cannavacciuolo-f1de9978-a077-11ef-9ad3-b2320787642a.shtml</v>
+      </c>
+      <c r="C129" t="str">
+        <v>di Chiara Amati</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Chi sono i nuovi membri della Commissione Europea. Fitto è vice presidente esecutivo con delega a Coesione e Riforme</v>
+        <v>Carenza di vitamina D:</v>
       </c>
       <c r="B130" t="str">
-        <v>https://www.corriere.it/esteri/24_settembre_17/commissione-europea-fitto-4cd25e43-2233-42cd-b096-6c94e93b5xlk.shtml</v>
+        <v>https://www.corriere.it/cook/news/24_novembre_12/carenza-vitamina-d-dieta-settimanale-attivarla-autunno-ed-evitare-malattie-anche-serie-3e8af16a-99c3-11ef-bc68-6a5c0bda55cd.shtml</v>
+      </c>
+      <c r="C130" t="str">
+        <v>di Chiara Amati</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Amos Hochstein, il mediatore «improbabile» di Biden che ha la fiducia di Bin Salman</v>
+        <v>Bufera sullo chef Jamie Oliver, ritirato il suo primo libro per bambini: «Offende gli indigeni australiani». Lui: «Sono devastato»</v>
       </c>
       <c r="B131" t="str">
-        <v>https://www.corriere.it/esteri/24_settembre_16/amos-hochstein-il-mediatore-improbabile-che-ha-la-fiducia-del-principe-saudita-b2e700f8-8125-4288-afa3-a8433a2d2xlk.shtml</v>
+        <v>https://www.corriere.it/cook/news/24_novembre_11/bufera-chef-jamie-oliver-ritirato-suo-primo-libro-bambini-offende-indigeni-australiani-lui-sono-devastato-c6bf7eb2-a02f-11ef-9ad3-b2320787642a.shtml</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Не найден</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Re Carlo a Dumfries House:  tavolo per discutere della spirale di violenza nel Regno Unito</v>
+        <v>Prevenzione donna,</v>
       </c>
       <c r="B132" t="str">
-        <v>https://www.corriere.it/esteri/24_settembre_20/re-carlo-a-dumfries-house-in-scozia-un-tavolo-per-discutere-della-spirale-di-violenza-nel-regno-unito-3d2a68c2-c654-48e3-8af5-aed029d2cxlk.shtml</v>
+        <v>https://www.corriere.it/salute/figli-genitori/adolescenza/24_novembre_13/prevenzione-donna-il-vademecum-dei-controlli-dall-adolescenza-alla-menopausa-b8b9550c-ce06-4ab1-a448-35cda59e7xlk.shtml</v>
+      </c>
+      <c r="C132" t="str">
+        <v>di Chiara Bidoli</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Rofrano, bando pubblico per cercare un'assessora: ma è andato deserto</v>
+        <v>Mantenere una mente brillante a lungo: alcuni comportamenti fanno nascere nuovi neuroni</v>
       </c>
       <c r="B133" t="str">
-        <v>https://salerno.corriere.it/notizie/cronaca/24_settembre_20/comune-di-rofrano-bando-pubblico-per-cercare-un-assessore-donna-ma-e-andato-deserto-in-giunta-solo-uomini-9f577227-b620-4f20-bfb7-7d338cdb4xlk.shtml</v>
+        <v>https://www.corriere.it/salute/neuroscienze/24_novembre_09/come-si-mantiene-una-mente-brillante-molto-a-lungo-45897191-d764-4cee-9179-9d4127a0dxlk.shtml</v>
+      </c>
+      <c r="C133" t="str">
+        <v>di Elena Meli</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Vicenza celebra Paolo Rossi: mega murales nel grattacielo della città</v>
+        <v>Dieci cose da sapere assolutamente prima di sottoporsi a un intervento di chirurgia estetica</v>
       </c>
       <c r="B134" t="str">
-        <v>https://corrieredelveneto.corriere.it/notizie/vicenza/cronaca/24_settembre_22/vicenza-celebra-paolo-rossi-mega-murales-di-60-metri-nel-grattacielo-della-citta-3cb64473-b7f4-4f03-a9c9-24b04f958xlk.shtml</v>
+        <v>https://www.corriere.it/salute/dermatologia/cards/10-cose-sapere-assolutamente-prima-sottoporsi-chirurgia-estetica/affidarsi-uno-specialista-controllare_principale.shtml</v>
+      </c>
+      <c r="C134" t="str">
+        <v>di Vera Martinella</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>A Prato, nel deserto dei capannoni cinesi del pronto moda in crisi: «Qui non c’è più nessuno»</v>
+        <v>Smartphone vietato ai minori</v>
       </c>
       <c r="B135" t="str">
-        <v>https://corrierefiorentino.corriere.it/notizie/economia/24_settembre_21/a-prato-nel-deserto-dei-capannoni-cinesi-del-pronto-moda-nulla-da-spiegare-qui-non-c-e-piu-nessuno-non-era-mai-sucesso-da4d57c9-e1f0-4786-ad79-b282696a8xlk.shtml</v>
+        <v>https://www.corriere.it/salute/figli-genitori/adolescenza/24_novembre_11/smartphone-vietato-ai-minori-di-14-anni-e-giusto-o-sbagliato-400c164a-31c8-4c19-912c-d7937a2b0xlk.shtml</v>
+      </c>
+      <c r="C135" t="str">
+        <v>di Laura Cuppini</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Pierina, il passato militare di Dassilva. Il pm: «Può uccidere senza tracce»</v>
+        <v>Treni, i rincari per Natale: da Milano verso il Sud biglietti triplicati (fino a 345 euro)</v>
       </c>
       <c r="B136" t="str">
-        <v>https://corrieredibologna.corriere.it/notizie/cronaca/24_settembre_21/omicidio-pierina-paganelli-spunta-il-passato-da-militare-di-dassilva-il-pm-puo-uccidere-senza-lasciare-tracce-7a1771be-78fa-4e50-bfe2-13c7bb82exlk.shtml</v>
+        <v>https://www.corriere.it/economia/trasporti/treni/24_novembre_14/treni-i-rincari-per-natale-da-milano-verso-il-sud-il-prezzo-dei-biglietti-e-anche-triplicato-fino-a-345-euro-59027dda-2669-4347-ac88-edaf37f50xlk.shtml</v>
+      </c>
+      <c r="C136" t="str">
+        <v>di Redazione Economia</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Mecca, quello schianto in aereo. La moglie: «Cerco  l’infermiera che mi aiutò»</v>
+        <v>Black Friday, cala la propensione all’acquisto: 3 italiani su 10 non faranno regali a Natale</v>
       </c>
       <c r="B137" t="str">
-        <v>https://bergamo.corriere.it/notizie/cronaca/24_settembre_20/la-tragedia-aerea-di-stefano-mecca-un-infermiera-accanto-a-me-reagii-alla-tragedia-grazie-a-lei-ora-la-cerco-1c5baca0-907b-4df6-bd29-a3ed99194xlk.shtml</v>
+        <v>https://www.corriere.it/economia/consumi/24_novembre_15/black-friday-cala-la-propensione-all-acquisto-3-italiani-su-10-non-faranno-regali-a-natale-c0fef39f-5ee2-40ea-875a-a6bc72420xlk.shtml</v>
+      </c>
+      <c r="C137" t="str">
+        <v>di Redazione Economia</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Strage, le conferme della superteste sui presunti esecutori materiali: «Hanno deciso di agire per vendetta»</v>
+        <v>Non solo alluvioni, in Italia avanza la desertificazione: il 18% dei terreni non è più coltivabile</v>
       </c>
       <c r="B138" t="str">
-        <v>https://brescia.corriere.it/notizie/cronaca/24_settembre_20/strage-le-conferme-della-superteste-sui-presunti-esecutori-materiali-hanno-deciso-di-agire-per-vendetta-7dfb596a-eec0-42aa-92ab-9633d4b34xlk.shtml</v>
+        <v>https://www.corriere.it/economia/consumi/24_novembre_15/non-solo-alluvioni-in-italia-avanza-la-desertificazione-il-18-dei-terreni-non-e-piu-coltivabile-dde9fadd-a34e-4241-942a-c0741e2f1xlk.shtml</v>
+      </c>
+      <c r="C138" t="str">
+        <v>di Luca Angelini</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Smartphone e chat, la scatola nera dei politici (tranne due)</v>
+        <v>Perché non si trovano più le vongole? Non è solo colpa del granchio blu: le tecniche di cattura e gli altri danni</v>
       </c>
       <c r="B139" t="str">
-        <v>https://www.corriere.it/sette/cultura-societa/24_settembre_22/smartphone-e-chat-la-scatola-nera-dei-politici-tranne-due-ea7077f3-5db4-44fb-9de9-98e699d1dxlk.shtml</v>
+        <v>https://www.corriere.it/economia/aziende/24_novembre_14/perche-non-si-trovano-piu-le-vongole-non-e-solo-colpa-del-granchio-blu-le-tecniche-di-cattura-e-gli-altri-danni-ce6ca7b2-fa1a-46b5-bb0e-da12c24e6xlk.shtml</v>
+      </c>
+      <c r="C139" t="str">
+        <v>di Redazione Economia</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Le medaglie paralimpiche raccontano un'Italia bella. La corsa deve continuare</v>
+        <v>L'auto che cambia colore:</v>
       </c>
       <c r="B140" t="str">
-        <v>https://www.corriere.it/sette/editoriali/24_settembre_20/medaglie-paralimpiche-italia-editoriale-6182784c-ac88-4ee0-bb7c-44a7c6b9axlk.shtml</v>
+        <v>https://www.corriere.it/motori/news/24_novembre_11/auto-che-cambia-colore-tutti-segreti-progetto-bmw-ink-7c92f98c-6a8c-11ef-b116-64f7fbf41e36.shtml</v>
+      </c>
+      <c r="C140" t="str">
+        <v>di Andrea Paoletti</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>La regola dei 2 minuti: risolvere i sospesi fa bene al cervello (e alla nostra vita)</v>
+        <v>Volvo batte Tesla: ecco com’è la EX30, l’auto che ha sconfitto la Model Y</v>
       </c>
       <c r="B141" t="str">
-        <v>https://www.corriere.it/sette/cultura-societa/24_settembre_20/la-regola-dei-2-minuti-risolvere-i-sospesi-fa-bene-al-cervello-e-alla-nostra-vita-6e058f15-7352-46be-9348-eb9d4853axlk.shtml</v>
+        <v>https://www.corriere.it/motori/news/24_novembre_08/auto-elettriche-volvo-batte-tesla-ecco-com-ex30-l-auto-che-ha-sconfitto-model-y-775448ba-9d25-11ef-bd19-029f9727d046.shtml</v>
+      </c>
+      <c r="C141" t="str">
+        <v>di Maurizio Bertera</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>La faccia, la religione, gli amici potenti (e la mamma alcolizzata): sarà Vance la carta vincente di Trump?</v>
+        <v>Auto usate inarrestabili, vendono il doppio di quelle nuove: risparmi fino al 50%</v>
       </c>
       <c r="B142" t="str">
-        <v>https://www.corriere.it/sette/cultura-societa/24_settembre_20/vance-trump-597f5b5b-6144-4a82-a9bd-8f082f5f7xlk.shtml</v>
+        <v>https://www.corriere.it/motori/news/24_novembre_07/auto-usate-inarrestabili-vendono-doppio-quelle-nuove-risparmi-fino-50percento-c58f789e-9cf1-11ef-bd19-029f9727d046.shtml</v>
+      </c>
+      <c r="C142" t="str">
+        <v>di Edoardo Nastri</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Bottega Veneta, il potere del wow</v>
+        <v>Ibride a Gpl, con 30 euro si fa il pieno e le prestazioni sono le stesse delle auto a benzina</v>
       </c>
       <c r="B143" t="str">
-        <v>https://style.corriere.it/moda/sfilate/sfilata-bottega-veneta-ss25-il-potere-del-wow/</v>
+        <v>https://www.corriere.it/motori/news/24_novembre_04/ibride-gpl-30-euro-si-fa-pieno-prestazioni-sono-stesse-auto-benzina-109539ce-9a8f-11ef-b254-164159a07dc7.shtml</v>
+      </c>
+      <c r="C143" t="str">
+        <v>di Edoardo Nastri</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Dolce&amp;Gabbana, bellezza, semplicemente bellezza</v>
+        <v>Le «prime» di Verdi alla Scala e John Grisham in anteprima: la newsletter de «la Lettura»</v>
       </c>
       <c r="B144" t="str">
-        <v>https://style.corriere.it/moda/sfilate/sfilata-dolcegabbana-ss25-bellezza-semplicemente-bellezza/</v>
+        <v>https://www.corriere.it/la-lettura/24_novembre_14/tutte-prime-verdi-scala-john-grisham-anteprima-newsletter-de-la-lettura-21e46140-a2c9-11ef-8263-b8c1a28105b5.shtml</v>
+      </c>
+      <c r="C144" t="str">
+        <v>di Redazione Cultura</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Bally e il perfetto scomposto</v>
+        <v>L’Agendina 2025 è in edicola: un anno di poesia con «la Lettura»</v>
       </c>
       <c r="B145" t="str">
-        <v>https://style.corriere.it/moda/sfilate/sfilata-bally-ss25-il-perfetto-scomposto/</v>
+        <v>https://www.corriere.it/la-lettura/24_ottobre_18/agendina-2025-de-la-lettura-anno-poesia-domenica-c-nuovo-numero-defe9ee0-8d6f-11ef-8e75-cb782c175b15.shtml</v>
+      </c>
+      <c r="C145" t="str">
+        <v>di Ida Bozzi</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Ferragamo, elaborazioni dall’heritage</v>
+        <v>Ecco il Caravaggio mai visto: svelato il ritratto</v>
       </c>
       <c r="B146" t="str">
-        <v>https://style.corriere.it/moda/sfilate/sfilata-ferragamo-ss25-elaborazioni-dallheritage/</v>
+        <v>https://www.corriere.it/cultura/24_novembre_13/ecco-caravaggio-mai-visto-svelato-ritratto-maffeo-barberini-a382ee36-a20d-11ef-b9f2-edd2e53a540b.shtml</v>
+      </c>
+      <c r="C146" t="str">
+        <v>di Edoardo Sassi</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Le serie tv da vedere questa settimana: Nobody Wants This, Familia de Medianoche e Tutto Chiede Salvezza 2</v>
+        <v>Sandro Veronesi: «La guerra distrugge vite e sentimenti»</v>
       </c>
       <c r="B147" t="str">
-        <v>https://www.corriere.it/spettacoli/cinema-serie-tv/24_settembre_22/serie-tv-da-vedere-netflix-amazon-sky-rai-aa8cbe02-cc50-4e99-aeac-4d5c633efxlk.shtml</v>
+        <v>https://video.corriere.it/cultura/la-lettura/sandro-veronesi-racconto-primo-amore-un-dodicenne-guerra-distrugge-vite-sentimenti/73b1e97e-861e-11ef-b66c-efc63599d42d</v>
+      </c>
+      <c r="C147" t="str">
+        <v>a cura di Cristina Taglietti</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Lazza: «Nel rap sento cose che sono brutte da dire. Io non ne ho mai avuto bisogno»</v>
+        <v>Università, Federico II di Napoli terza al mondo in Farmacia. Dal PoliMi alla Sapienza, le altre al top</v>
       </c>
       <c r="B148" t="str">
-        <v>https://www.corriere.it/spettacoli/24_settembre_21/lazza-nel-rap-sento-cose-che-sono-brutte-da-dire-io-non-ne-ho-mai-avuto-bisogno-a2967506-37d1-4a1d-a508-5cd93717axlk.shtml</v>
+        <v>https://www.corriere.it/scuola/universita/cards/ranking-di-shanghai-2024-l-exploit-della-federico-ii-di-napoli-terza-al-mondo-in-farmacia-dal-politecnico-di-milano-alla-sapienza-le-altre-universita-al-top/la-classifica-di-shanghai_principale.shtml</v>
+      </c>
+      <c r="C148" t="str">
+        <v>di Redazione Università</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>«Temptation Island», il programma più visto: piace ai giovani</v>
+        <v>Scuola e competenze digitali, le ragazze sono più avanti. E vince chi ha più libri in casa</v>
       </c>
       <c r="B149" t="str">
-        <v>https://www.corriere.it/spettacoli/24_settembre_21/temptation-island-il-programma-piu-visto-piace-ai-giovani-3eea1bb3-a1ef-4160-94c4-dfe3c5250xlk.shtml</v>
+        <v>https://www.corriere.it/scuola/medie/24_novembre_12/scuola-e-competenze-digitali-il-primato-a-sorpresa-delle-ragazze-e-vince-chi-ha-piu-libri-in-casa-8bd90c88-1dfe-4166-b5de-e927a8581xlk.shtml</v>
+      </c>
+      <c r="C149" t="str">
+        <v>di Gianna Fregonara e Orsola Riva</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>«Agatha All Along», le streghe son tornate. Dark e horror nella nuova serie Marvel</v>
+        <v>I dati dell'Università: pochi giovani ricercatori e troppa burocrazia</v>
       </c>
       <c r="B150" t="str">
-        <v>https://www.corriere.it/spettacoli/cinema-serie-tv/24_settembre_21/agatha-all-along-le-streghe-son-tornate-dark-e-horror-nella-nuova-serie-marvel-4d230cf0-4ebc-4a11-ad7d-6b5758eacxlk.shtml</v>
+        <v>https://www.corriere.it/scuola/24_novembre_04/i-dati-dell-universita-pochi-giovani-ricercatori-e-troppa-burocrazia-ba5aa892-2281-47f6-a57d-9a0806897xlk.shtml</v>
+      </c>
+      <c r="C150" t="str">
+        <v>di Paolo Ferri</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Pagelle Juventus-Napoli: Yildiz troppo ambizioso (5), Vlahovic vaga (5), Lukaku timido (5), Lobotka vivo (6,5)</v>
+        <v>Pietanza, il piatto più importante per ricordarci della fame</v>
       </c>
       <c r="B151" t="str">
-        <v>https://www.corriere.it/sport/calcio/serie-a/cards/pagelle-juventus-napoli-21-settembre-2024/pagelle-juventus-napoli_principale.shtml</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>Doubois resta campione dei massimi Ibf: Joshua ko al quinto round, ma rischia già nel primo</v>
-      </c>
-      <c r="B152" t="str">
-        <v>https://www.corriere.it/sport/24_settembre_22/doubois-joshua-ko-mondiale-massimi-ibf-boxe-29a88c2f-296f-4258-97a1-469b02c08xlk.shtml</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>Inter-Milan: sulla carta nerazzurri superiori in tutto, ma nel derby non contano solo tattica e qualità</v>
-      </c>
-      <c r="B153" t="str">
-        <v>https://www.corriere.it/sport/calcio/serie-a/24_settembre_22/inter-milan-favorita-derby-favorita-analisi-2a05d95e-7f0b-483b-ad59-066af36ddxlk.shtml</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>Buffon-Ilaria D'Amico, le nozze tra una settimana: data, luogo e tutto quello che sappiamo</v>
-      </c>
-      <c r="B154" t="str">
-        <v>https://www.corriere.it/sport/24_settembre_20/buffon-ilaria-d-amico-matrimonio-data-luogo-cf4562d0-a44c-4834-b74f-56b9d7597xlk.shtml</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>Dai camperos al pantalone rodeo. Il trend cowgirl per cavalcare l’Autunno |</v>
-      </c>
-      <c r="B155" t="str">
-        <v>https://www.iodonna.it/moda/tendenze/2024/09/16/cowgirl-outfit-autunno-2024-stivali-texani-pantaloni-rodeo-borsa-borchie/?intcmp=iod_hpcor_articolo</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>Cos’è la PRX, il protocollo anti-age per rigenerare la pelle senza aghi</v>
-      </c>
-      <c r="B156" t="str">
-        <v>https://www.iodonna.it/bellezza/viso-e-corpo/2024/09/17/prx-trattamento-viso-rigenerare-la-pelle-senza-aghi-biorivitalizzazione-senza-aghi/?intcmp=iod_hpcor_articolo</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>Diabete high-tech: intelligenza artificiale e innovazione tecnologica</v>
-      </c>
-      <c r="B157" t="str">
-        <v>https://www.iodonna.it/benessere/salute-e-psicologia/2024/09/17/diabete-high-tech-intelligenza-artificiale-e-innovazione-tecnologica-a-beneficio-dei-pazienti/?intcmp=iod_hpcor_articolo</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>Le previsioni per la giornata per lei e per lui e la pagella dell’umore per</v>
-      </c>
-      <c r="B158" t="str">
-        <v>https://www.iodonna.it/oroscopo/oggi/?intcmp=iod_hpcor_articolo</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>La Gen Z ha capito che i social fanno male. La metà di loro: «Non daremo ai nostri figli il cellulare prima del liceo»</v>
-      </c>
-      <c r="B159" t="str">
-        <v>https://www.corriere.it/tecnologia/24_settembre_20/la-gen-z-ha-capito-che-i-social-fanno-male-la-meta-di-loro-non-daremo-ai-nostri-figli-il-cellulare-prima-del-liceo-d4fed6d2-dfec-4253-801b-0dcca7c4bxlk.shtml</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>«Per colpa di Musk non vedremo più buchi neri e galassie lontane»</v>
-      </c>
-      <c r="B160" t="str">
-        <v>https://www.corriere.it/tecnologia/24_settembre_20/per-colpa-di-starlink-non-vedremo-piu-buchi-neri-e-galassie-lontane-gli-scienziati-lanciano-l-allarme-45660d1a-2786-43de-bffd-67c6666ebxlk.shtml</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v>Equinozio d'autunno 2024, perché quest'anno non è stato il 21 settembre</v>
-      </c>
-      <c r="B161" t="str">
-        <v>https://www.corriere.it/tecnologia/24_settembre_21/equinozio-autunno-2024-2799ac12-1189-4655-bf0a-ddeb4e1d0xlk.shtml</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>Sorpasso cinese anche negli smartphone: Xiaomi secondo produttore al mondo. Apple terza, Samsung è nel mirino</v>
-      </c>
-      <c r="B162" t="str">
-        <v>https://www.corriere.it/tecnologia/24_settembre_20/xiaomi-sorpasso-cinese-ora-e-il-secondo-produttore-di-smartphone-globale-ad-agosto-scavalcata-apple-9f4b9ab2-fac9-4819-838c-cd7ea8735xlk.shtml</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>Un disegno al giorno per il cane che non c'è più. «La mia lettera d'amore e d'addio per Jim, 13 anni di vita insieme»</v>
-      </c>
-      <c r="B163" t="str">
-        <v>https://www.corriere.it/animali/24_settembre_19/la-mia-lettera-d-amore-e-d-addio-per-jim-cane-e-compagno-di-vita-per-13-anni-628a5a17-ef91-4b20-82ec-50e3aead6xlk.shtml</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>Commissione Ue, nasce la delega al benessere degli animali. Ma von der Leyen l'affida al fedele di Orban</v>
-      </c>
-      <c r="B164" t="str">
-        <v>https://www.corriere.it/animali/24_settembre_18/commissione-ue-nasce-la-delega-al-benessere-degli-animali-ma-von-der-leyen-l-affida-al-fedelissimo-di-orban-11a9f400-b910-4b82-812f-6f4367ee1xlk.shtml</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>Luzi: «Dalla natura deriva la nostra forza, vi spiego come attivarla. Gli animali? Io li amo, non li mangio»</v>
-      </c>
-      <c r="B165" t="str">
-        <v>https://www.corriere.it/animali/24_settembre_18/irene-luzi-dalla-natura-deriva-la-nostra-forza-vi-spiego-come-attivarla-gli-animali-meglio-amarli-che-mangiarli-69730760-8dec-4893-84b4-d1b5ba03cxlk.shtml</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="str">
-        <v>«Animali metropolitani», il contest che racconta l’evoluzione del rapporto uomo-natura:</v>
-      </c>
-      <c r="B166" t="str">
-        <v>https://www.corriere.it/animali/24_giugno_14/animali-metropolitani-il-contest-che-racconta-l-evoluzione-del-rapporto-uomo-natura-come-partecipare-3f9371b0-3fbb-4f19-9ef2-f783bea7bxlk.shtml</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="str">
-        <v>iPhone 16, prova in anteprima: un tasto in più, sognando Apple Intelligence (che arriverà)</v>
-      </c>
-      <c r="B167" t="str">
-        <v>https://www.corriere.it/offerte-recensioni/tecnologia/smartphone/24_settembre_18/apple-iphone-16-pro-max-e-iphone-16-la-recensione-un-tasto-in-piu-sognando-apple-intelligence-87ae019e-fe68-45e8-aa26-a6b7b2f1fxlk.shtml</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="str">
-        <v>Watch Series 10, la prova: più magro e più bello e avvisa delle apnee notturne</v>
-      </c>
-      <c r="B168" t="str">
-        <v>https://www.corriere.it/offerte-recensioni/tecnologia/accessori-tech/24_settembre_17/apple-watch-series-10-la-recensione-magro-e-bello-8b5c8752-fba3-4313-b914-3350f9f68xlk.shtml</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="str">
-        <v>Diamanti «fai da te»: dove trovare la macchina per produrli in casa</v>
-      </c>
-      <c r="B169" t="str">
-        <v>https://www.corriere.it/offerte-recensioni/24_settembre_17/i-diamanti-diventano-fai-da-te-dove-trovare-la-macchina-per-produrli-in-casa-5aa52876-dd94-491a-b985-a5a5cba7bxlk.shtml</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="str">
-        <v>Videocassette in soffitta?</v>
-      </c>
-      <c r="B170" t="str">
-        <v>https://www.corriere.it/offerte-recensioni/24_settembre_09/videocassette-in-soffitta-i-dispositivi-per-convertire-i-file-funzionano-anche-per-videocamere-e-console-di-giochi-472d7247-bb92-444c-8ab4-1af34aa57xlk.shtml</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="str">
-        <v>I dispositivi per convertire i file (funzionano anche per videocamere e console)</v>
-      </c>
-      <c r="B171" t="str">
-        <v>https://www.corriere.it/offerte-recensioni/24_settembre_09/videocassette-in-soffitta-i-dispositivi-per-convertire-i-file-funzionano-anche-per-videocamere-e-console-di-giochi-472d7247-bb92-444c-8ab4-1af34aa57xlk.shtml</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="str">
-        <v>FdI e Pd, i voti incrociati in Europa: inizia l’era delle geometrie variabili</v>
-      </c>
-      <c r="B172" t="str">
-        <v>https://roma.corriere.it/notizie/politica/24_settembre_21/fdi-e-pd-convergenze-in-europa-6b7e5bd4-27ad-40a5-96fe-87a9d2b4fxlk.shtml</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="str">
-        <v>Dossier, FI contro de Raho: «Manda pizzini a Striano». Lui: non c’entro, io vittima</v>
-      </c>
-      <c r="B173" t="str">
-        <v>https://www.corriere.it/politica/24_settembre_20/dossier-fi-contro-de-raho-manda-pizzini-a-striano-lui-non-c-entro-io-vittima-80b70c82-fbec-4226-9742-d4a2b4232xlk.shtml</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="str">
-        <v>Vannacci: «Mio partito? Invenzione della stampa. Ma non lo escludo». E litiga col cronista</v>
-      </c>
-      <c r="B174" t="str">
-        <v>https://video.corriere.it/politica/vannacci-mio-partito-invenzione-della-stampa-ma-non-lo-escludo-e-litiga-col-cronista/f798270d-b8f5-48cf-be7d-2db0188c8xlk</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="str">
-        <v>Governo, la competizione tra alleati per includere tutte le destre</v>
-      </c>
-      <c r="B175" t="str">
-        <v>https://www.corriere.it/politica/24_settembre_20/governo-la-competizione-tra-alleati-per-includere-tutte-le-destre-d472a327-0690-4bda-9303-a7e48cd1fxlk.shtml</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="str">
-        <v>Po, Adige, Tevere, Adda:</v>
-      </c>
-      <c r="B176" t="str">
-        <v>https://www.corriere.it/buone-notizie/cards/po-adige-tevere-adda-ecco-i-fiumi-piu-lunghi-a-rischio-per-dighe-e-barriere/la-giornata-mondiale-dei-fiumi_principale.shtml</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="str">
-        <v>ecco i fiumi più lunghi</v>
-      </c>
-      <c r="B177" t="str">
-        <v>https://www.corriere.it/buone-notizie/cards/po-adige-tevere-adda-ecco-i-fiumi-piu-lunghi-a-rischio-per-dighe-e-barriere/la-giornata-mondiale-dei-fiumi_principale.shtml</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="str">
-        <v>a rischio per dighe e barriere</v>
-      </c>
-      <c r="B178" t="str">
-        <v>https://www.corriere.it/buone-notizie/cards/po-adige-tevere-adda-ecco-i-fiumi-piu-lunghi-a-rischio-per-dighe-e-barriere/la-giornata-mondiale-dei-fiumi_principale.shtml</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="str">
-        <v>Le capre dei fratelli Brighi</v>
-      </c>
-      <c r="B179" t="str">
-        <v>https://www.corriere.it/buone-notizie/24_settembre_21/le-capre-dei-fratelli-brighi-e-i-pascoli-del-satiro-dove-la-natura-e-armonia-53182a10-5073-471c-a2cf-a2085d037xlk.shtml</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="str">
-        <v>e i pascoli del «Satiro»</v>
-      </c>
-      <c r="B180" t="str">
-        <v>https://www.corriere.it/buone-notizie/24_settembre_21/le-capre-dei-fratelli-brighi-e-i-pascoli-del-satiro-dove-la-natura-e-armonia-53182a10-5073-471c-a2cf-a2085d037xlk.shtml</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="str">
-        <v>dove la natura è armonia</v>
-      </c>
-      <c r="B181" t="str">
-        <v>https://www.corriere.it/buone-notizie/24_settembre_21/le-capre-dei-fratelli-brighi-e-i-pascoli-del-satiro-dove-la-natura-e-armonia-53182a10-5073-471c-a2cf-a2085d037xlk.shtml</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="str">
-        <v>Sisma, otto anni dopo: «ActionAid, giovani</v>
-      </c>
-      <c r="B182" t="str">
-        <v>https://www.corriere.it/buone-notizie/24_settembre_21/sisma-8-anni-dopo-actionaid-giovani-e-donne-sono-ai-margini-8d6154f2-9230-4ee4-bda7-bca5e523exlk.shtml</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="str">
-        <v>e donne sono ai margini»</v>
-      </c>
-      <c r="B183" t="str">
-        <v>https://www.corriere.it/buone-notizie/24_settembre_21/sisma-8-anni-dopo-actionaid-giovani-e-donne-sono-ai-margini-8d6154f2-9230-4ee4-bda7-bca5e523exlk.shtml</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="str">
-        <v>Il Pollino unisce e sorprende: trionfo di Serre nel Parco</v>
-      </c>
-      <c r="B184" t="str">
-        <v>https://www.corriere.it/buone-notizie/cards/il-pollino-unisce-e-sorprende-nel-parco-trionfano-le-serre-a-meta-tra-calabria-e-lucania/b-lo-spettacolare-pollino-tra-calabria-e-lucania-b_principale.shtml</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="str">
-        <v>a metà tra Calabria e Lucania</v>
-      </c>
-      <c r="B185" t="str">
-        <v>https://www.corriere.it/buone-notizie/cards/il-pollino-unisce-e-sorprende-nel-parco-trionfano-le-serre-a-meta-tra-calabria-e-lucania/b-lo-spettacolare-pollino-tra-calabria-e-lucania-b_principale.shtml</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="str">
-        <v>Valter Longo: «Più pesce, legumi, cereali integrali e digiuno 12:12. Così ho guadagnato 10 anni di vita»</v>
-      </c>
-      <c r="B186" t="str">
-        <v>https://www.corriere.it/cook/news/24_settembre_07/valter-longo-piu-pesce-legumi-cereali-integrali-digiuno-1212-cosi-ho-guadagnato-10-anni-vita-dccb189c-6c5e-11ef-b67d-75908bd19f8f.shtml</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="str">
-        <v>Peso forma, come calcolarlo, raggiungerlo e mantenerlo a tavola: i consigli dell’esperto</v>
-      </c>
-      <c r="B187" t="str">
-        <v>https://www.corriere.it/cook/news/cards/peso-forma-come-calcolarlo-raggiungerlo-mantenerlo-tavola/peso-forma-come-si-calcola_principale.shtml</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="str">
-        <v>I 10 comportamenti più imbarazzanti al ristorante (il nono lo facciamo tutti)</v>
-      </c>
-      <c r="B188" t="str">
-        <v>https://www.corriere.it/cook/news/cards/i-10-errori-piu-imbarazzanti-ristorante-il-nono-commettiamo-tutti/questioni-rispetto_principale.shtml</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="str">
-        <v>Milano Fashion Week, i migliori bar e ristoranti da provare in questi giorni</v>
-      </c>
-      <c r="B189" t="str">
-        <v>https://www.corriere.it/cook/news/cards/milano-fashion-week-migliori-bar-ristoranti-provare-questi-giorni/dove-mangiare-milano_principale.shtml</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="str">
-        <v>Midollo osseo, donatori in aumento. Ora sono mezzo milione gli iscritti al Registro nazionale, ma non bastano</v>
-      </c>
-      <c r="B190" t="str">
-        <v>https://www.corriere.it/salute/24_settembre_21/midollo-osseo-per-il-trapianto-donatori-in-aumento-ora-sono-mezzo-milione-gli-iscritti-al-registro-nazionale-ma-non-basta-d7f559b9-31f2-4ecf-a224-293737fdbxlk.shtml</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="str">
-        <v>Il sondaggio su caregiver</v>
-      </c>
-      <c r="B191" t="str">
-        <v>https://www.corriere.it/salute/24_luglio_21/il-sondaggio-su-caregiver-e-cronicita-di-corriere-it-salute-come-partecipare-d3d9f437-8b57-4566-8646-58056ad7axlk.shtml</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="str">
-        <v>e cronicità di Corriere.it/ salute.</v>
-      </c>
-      <c r="B192" t="str">
-        <v>https://www.corriere.it/salute/24_luglio_21/il-sondaggio-su-caregiver-e-cronicita-di-corriere-it-salute-come-partecipare-d3d9f437-8b57-4566-8646-58056ad7axlk.shtml</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="str">
-        <v>Bronchiolite, perché fa così paura: uccide centomila bambini ogni anno nel mondo</v>
-      </c>
-      <c r="B193" t="str">
-        <v>https://www.corriere.it/salute/figli-genitori/neonato/24_settembre_20/bronchiolite-perche-fa-cosi-paura-uccide-100mila-bambini-ogni-anno-nel-mondo-8c56d07c-71ee-48c9-bde1-19785badcxlk.shtml</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="str">
-        <v>Adolescenti ansiosi e in crisi: come li aiuta, in classe,</v>
-      </c>
-      <c r="B194" t="str">
-        <v>https://www.corriere.it/salute/figli-genitori/adolescenza/24_settembre_19/adolescenti-ansiosi-e-in-crisi-come-li-aiuta-il-progetto-itaca-dfb5ff61-620d-40d9-961d-9e15657bbxlk.shtml</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="str">
-        <v>il Progetto Itaca</v>
-      </c>
-      <c r="B195" t="str">
-        <v>https://www.corriere.it/salute/figli-genitori/adolescenza/24_settembre_19/adolescenti-ansiosi-e-in-crisi-come-li-aiuta-il-progetto-itaca-dfb5ff61-620d-40d9-961d-9e15657bbxlk.shtml</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="str">
-        <v>Stipendi, perché non crescono? Il sogno infranto di poter governare l’inflazione</v>
-      </c>
-      <c r="B196" t="str">
-        <v>https://www.corriere.it/economia/opinioni/24_settembre_21/stipendi-perche-in-italia-non-crescono-il-sogno-infranto-di-poter-governare-l-inflazione-8a2f0987-b033-4754-be8d-42e956e64xlk.shtml</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="str">
-        <v>Manovra, tagli alle tasse per chi guadagna fino a 60 mila euro: così cambierà l’Irpef per il ceto medio</v>
-      </c>
-      <c r="B197" t="str">
-        <v>https://www.corriere.it/economia/tasse/24_settembre_20/manovra-tagli-alle-tasse-per-chi-guadagna-fino-a-60-mila-euro-cosi-cambieranno-le-aliquote-irpef-del-ceto-medio-30c2aef2-d0c9-439b-ac3d-30632efffxlk.shtml</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="str">
-        <v>Bonus edilizi, stop incentivi per le seconde case: resta l'ecobonus (solo se migliora la classe energetica)</v>
-      </c>
-      <c r="B198" t="str">
-        <v>https://www.corriere.it/economia/casa/24_settembre_19/bonus-edilizi-stop-agli-incentivi-per-le-seconde-case-resta-l-ecobonus-ma-solo-se-migliora-la-classe-energetica-768a5cd7-9189-4dcd-a2aa-c7526565cxlk.shtml</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="str">
-        <v>Affitti brevi e cedolare secca, quando si resta al 21%? La risposta su «Chiedi all’esperto»</v>
-      </c>
-      <c r="B199" t="str">
-        <v>https://www.corriere.it/economia/tasse/24_settembre_21/affitti-brevi-e-cedolare-secca-quando-si-resta-al-21-la-risposta-su-chiedi-all-esperto-46be6f73-1608-4771-92c7-f60ad9f2exlk.shtml</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="str">
-        <v>La Ferrari del campione di tennis dimenticata in un parcheggio per 10 anni: perché e quanto vale</v>
-      </c>
-      <c r="B200" t="str">
-        <v>https://www.corriere.it/motori/news/24_settembre_17/ferrari-campione-tennis-dimenticata-un-parcheggio-10-anni-perche-quanto-vale-e17c79ac-738a-11ef-88e7-300e7c5f0e99.shtml</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="str">
-        <v>La velocità non conta? Cronaca di 500 chilometri in montagna su una Porsche del 1971</v>
-      </c>
-      <c r="B201" t="str">
-        <v>https://www.corriere.it/motori/prove/24_settembre_16/velocita-non-conta-cronaca-500-chilometri-montagna-una-porsche-1971-14f9835c-7399-11ef-88e7-300e7c5f0e99.shtml</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="str">
-        <v>Microlino, come va la microcar prodotta a Torino: si guida già a 14 anni</v>
-      </c>
-      <c r="B202" t="str">
-        <v>https://www.corriere.it/motori/prove/24_settembre_17/microlino-come-va-microcar-lunga-25-metri-prodotta-torino-si-guida-14-anni-63a95c6e-74d6-11ef-a156-048f35c389d9.shtml</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="str">
-        <v>Si restringe nel traffico e si allarga per viaggiare: foto e prezzi dell’auto transformer</v>
-      </c>
-      <c r="B203" t="str">
-        <v>https://www.corriere.it/motori/news/24_settembre_14/si-restringe-traffico-si-allarga-viaggiare-foto-prezzi-dell-auto-transformer-prodotta-torino-712cb004-71e6-11ef-85a0-385570c46736.shtml</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="str">
-        <v>«La Lettura delle ragazze</v>
-      </c>
-      <c r="B204" t="str">
-        <v>https://www.corriere.it/la-lettura/24_settembre_20/lettura-ragazze-ragazzi-sara-edicola-domenica-6-ottobre-80d046ea-7747-11ef-8432-f7c84cd0e473.shtml</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="str">
-        <v/>
-      </c>
-      <c r="B205" t="str">
-        <v>https://www.corriere.it/la-lettura/24_settembre_20/lettura-ragazze-ragazzi-sara-edicola-domenica-6-ottobre-80d046ea-7747-11ef-8432-f7c84cd0e473.shtml</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="str">
-        <v>e dei ragazzi» arriva in edicola domenica 6 ottobre</v>
-      </c>
-      <c r="B206" t="str">
-        <v>https://www.corriere.it/la-lettura/24_settembre_20/lettura-ragazze-ragazzi-sara-edicola-domenica-6-ottobre-80d046ea-7747-11ef-8432-f7c84cd0e473.shtml</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="str">
-        <v>Azar Nafisi sul palco</v>
-      </c>
-      <c r="B207" t="str">
-        <v>https://www.corriere.it/cultura/24_settembre_22/azar-nafisi-pordenonelegge-la-letteratura-verita-ecco-perche-fa-paura-2bd5d01c-7867-11ef-b104-7c5d7b25d3bf.shtml</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="str">
-        <v/>
-      </c>
-      <c r="B208" t="str">
-        <v>https://www.corriere.it/cultura/24_settembre_22/azar-nafisi-pordenonelegge-la-letteratura-verita-ecco-perche-fa-paura-2bd5d01c-7867-11ef-b104-7c5d7b25d3bf.shtml</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="str">
-        <v>di Pordenonelegge:</v>
-      </c>
-      <c r="B209" t="str">
-        <v>https://www.corriere.it/cultura/24_settembre_22/azar-nafisi-pordenonelegge-la-letteratura-verita-ecco-perche-fa-paura-2bd5d01c-7867-11ef-b104-7c5d7b25d3bf.shtml</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="str">
-        <v/>
-      </c>
-      <c r="B210" t="str">
-        <v>https://www.corriere.it/cultura/24_settembre_22/azar-nafisi-pordenonelegge-la-letteratura-verita-ecco-perche-fa-paura-2bd5d01c-7867-11ef-b104-7c5d7b25d3bf.shtml</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="str">
-        <v>«La letteraturà è verità»</v>
-      </c>
-      <c r="B211" t="str">
-        <v>https://www.corriere.it/cultura/24_settembre_22/azar-nafisi-pordenonelegge-la-letteratura-verita-ecco-perche-fa-paura-2bd5d01c-7867-11ef-b104-7c5d7b25d3bf.shtml</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="str">
-        <v>L’enigma di Francesco d’Assisi: il libro in edicola con il «Corriere»</v>
-      </c>
-      <c r="B212" t="str">
-        <v>https://www.corriere.it/gli-allegati-di-corriere/24_settembre_15/enigma-francesco-d-assisi-santo-tirato-destra-sinistra-libro-edicola-il-corriere-61bfe116-7332-11ef-88e7-300e7c5f0e99.shtml</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="str">
-        <v>Richard Ford: torna Frank Bascombe nel nuovo romanzo «Per sempre»</v>
-      </c>
-      <c r="B213" t="str">
-        <v>https://www.corriere.it/cultura/24_settembre_10/richard-ford-torna-frank-bascombe-nuovo-romanzo-per-sempre-c784e76e-6ed0-11ef-b268-86c885b3edf6.shtml</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="str">
-        <v>Giuli e il caso della laurea. Chi è laureato e chi no nel governo. A partire da Meloni, Salvini e Crosetto</v>
-      </c>
-      <c r="B214" t="str">
-        <v>https://www.corriere.it/scuola/rientro-a-scuola/cards/giuli-e-il-caso-della-laurea-chi-e-laureato-e-chi-no-nel-governo-a-partire-da-giorgia-meloni-e-matteo-salvini/giuli-quasi-filosofo_principale.shtml</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="str">
-        <v>Ius scholae, le ipotesi in campo. E voi passereste il test d'italiano per stranieri? Mettetevi alla prova</v>
-      </c>
-      <c r="B215" t="str">
-        <v>https://www.corriere.it/scuola/rientro-a-scuola/cards/ius-scholae-tutte-le-ipotesi-in-campo-e-voi-passereste-il-test-d-italiano-per-ottenere-il-passaporto/ius-scholae-la-terza-via-fra-suolo-e-sangue_principale.shtml</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="str">
-        <v>Università, scegli il corso più adatto a te (e scopri quanto guadagnerai)</v>
-      </c>
-      <c r="B216" t="str">
-        <v>https://www.corriere.it/scuola/universita/scelta-universitaria-orientamento/</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="str">
-        <v>Scuola, rivoluzione in Svezia: gioco addio, dal 2028 si va alle elementari un anno prima</v>
-      </c>
-      <c r="B217" t="str">
-        <v>https://www.corriere.it/scuola/rientro-a-scuola/24_settembre_19/scuola-rivoluzione-in-svezia-gioco-addio-dal-2028-si-va-alle-elementari-un-anno-prima-931cb5aa-165d-430d-ab26-09b8ac12exlk.shtml</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="str">
-        <v>Agostini: alla Mostra di Roma un film su di me Quarant'anni fa vinceva con ...</v>
-      </c>
-      <c r="B218" t="str">
-        <v>https://heavyrider.corriere.it/2024/09/20/agostini-alla-mostra-di-roma-un-film-su-di-me-quarantanni-fa-vinceva-con-il-suo-team-yamaha/</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="str">
-        <v>traversetolo - post inutile</v>
-      </c>
-      <c r="B219" t="str">
-        <v>https://forumcorriere.corriere.it/supplemento-singolo/2024/09/20/traversetolo-post-inutile</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="str">
-        <v>Auguri, Auguri, Auguri alla grande Sofia</v>
-      </c>
-      <c r="B220" t="str">
-        <v>https://forumcorriere.corriere.it/televisioni/2024/09/20/auguri-auguri-auguri-alla-grande-sofia</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="str">
-        <v>I segreti di Parthenope: Sorrentino sì e no</v>
-      </c>
-      <c r="B221" t="str">
-        <v>https://marilyn.corriere.it/2024/09/21/i-segreti-di-parthenope-sorrentino-si-e-no/</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="str">
-        <v>Negli Usa lo stato del Missouri sta per mettere a morte un innocente</v>
-      </c>
-      <c r="B222" t="str">
-        <v>https://lepersoneeladignita.corriere.it/2024/09/22/negli-usa-lo-stato-del-missouri-sta-per-mettere-a-morte-un-probabile-innocente/</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="str">
-        <v>Era Liverpool-Venezia? No, era un disastro</v>
-      </c>
-      <c r="B223" t="str">
-        <v>https://giornalistinelpallone.corriere.it/2024/09/18/era-liverpool-venezia-no-era-un-disastro/</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="str">
-        <v>La libellula e il frullatore</v>
-      </c>
-      <c r="B224" t="str">
-        <v>https://raccontidivetro.corriere.it/2024/09/17/la-libellula-e-il-frullatore/</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="str">
-        <v>Il mio viaggio interrotto (momentaneamente) dopo la diagnosi di leucemia. ...</v>
-      </c>
-      <c r="B225" t="str">
-        <v>https://malattiaopportunita.corriere.it/2024/05/30/il-mio-viaggio-interrotto-momentaneamente-dopo-la-diagnosi-di-leucemia-la-malattia-e-linconveniente-di-un-viaggio-che-va-comunque-amato-lostacolo-che-va-affrontato/</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="str">
-        <v>L'arte in quota diventa accessibile con Rami d'ORA e il Sentiero degli ...</v>
-      </c>
-      <c r="B226" t="str">
-        <v>https://invisibili.corriere.it/2024/09/21/larte-in-quota-diventa-accessibile-con-rami-dora-e-il-sentiero-degli-artisti/</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="str">
-        <v>Franco Cardini e la magia di Praga medievale. Un viaggio tra storia e ...</v>
-      </c>
-      <c r="B227" t="str">
-        <v>https://lanostrastoria.corriere.it/2024/09/22/franco-cardini-e-la-magia-di-praga-medievale-un-viaggio-tra-storia-e-leggenda/</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="str">
-        <v>Presentazione a Roma del poeta Antony John Robbins con le poesie tradotte ...</v>
-      </c>
-      <c r="B228" t="str">
-        <v>https://poesia.corriere.it/2024/09/20/presentazione-a-roma-del-poeta-antony-john-robbins-con-le-poesie-tradotte-postume-da-mariella-de-santis-il-piu-vuoto-possibile/</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="str">
-        <v>Fortnite contro Apple: il Project Liberty di Tim Sweeney</v>
-      </c>
-      <c r="B229" t="str">
-        <v>https://vitadigitale.corriere.it/2021/05/03/fortnite-contro-apple-il-project-liberty-di-tim-sweeney/</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="str">
-        <v>Le donne ed i padri multipli dei loro figli</v>
-      </c>
-      <c r="B230" t="str">
-        <v>https://forumcorriere.corriere.it/cosi-e-la-vita/2024/09/21/le-donne-ed-padri-multipli-dei-loro-figli</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="str">
-        <v>La primavera svela il lato chic della felpa sportiva, da indossare sempre. I modelli</v>
-      </c>
-      <c r="B231" t="str">
-        <v>https://www.amica.it/2024/02/05/felpa-sportiva-outfit-elegante-come-abbinare-2024/?intcmp=amica_fasciacor_articolo</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="str">
-        <v>Non solo quadri: 10 idee per le decorazioni da parete</v>
-      </c>
-      <c r="B232" t="str">
-        <v>https://living.corriere.it/arredamento/decorazione/card/non-solo-quadri-10-idee-per-le-decorazioni-da-parete/</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="str">
-        <v>Dove andare in autunno? Le 10 mete per le vacanze scelte da Dove</v>
-      </c>
-      <c r="B233" t="str">
-        <v>https://viaggi.corriere.it/news/cards/viaggi-autunno-2024/</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="str">
-        <v>Chi sono i concorrenti VIP e NIP del Grande Fratello 2024/25</v>
-      </c>
-      <c r="B234" t="str">
-        <v>https://style.corriere.it/spettacoli/tv/grande-fratello-2024-chi-sono-i-concorrenti-vip-e-nip/</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="str">
-        <v>Come migliorare il tuo modo di baciare? Ecco 5 tecniche infallibili!</v>
-      </c>
-      <c r="B235" t="str">
-        <v>https://quimamme.corriere.it/sessuologia/5-tecniche-infallibili-migliorare-modo-baciare</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="str">
-        <v>Job Talk - The Future of Job nell'era dell'AI - Esperti di settore, rappresentanti delle istituzioni e manager d’azienda condivideranno le loro visioni sul futuro del lavoro sempre più guidato dall’IA.</v>
-      </c>
-      <c r="B236" t="str">
-        <v>https://rcsacademy.corriere.it/business-talk/the-future-of-job-nellera-dellai/?intcmp=Corriere.it-BoxHP-BCT053-JobTalk_nd_030724_corriere_in_nd</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="str">
-        <v>CODICI SCONTO PER TE</v>
-      </c>
-      <c r="B237" t="str">
-        <v>https://codicesconto.corriere.it/</v>
+        <v>https://www.corriere.it/scuola/24_novembre_13/pietanza-il-piatto-piu-importante-per-ricordarci-della-fame-1f3a6ebe-778c-480b-af16-f35597236xlk.shtml</v>
+      </c>
+      <c r="C151" t="str">
+        <v>di Paolo Fallai</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B237"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C151"/>
   </ignoredErrors>
 </worksheet>
 </file>